--- a/Covid_19_Dataset_and_References/References/27.xlsx
+++ b/Covid_19_Dataset_and_References/References/27.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="85">
   <si>
     <t>Doi</t>
   </si>
@@ -343,6 +343,102 @@
   </si>
   <si>
     <t>2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+To assess the management and safety of epidural or general anesthesia for Cesarean delivery in parturients with coronavirus disease (COVID-19) and their newborns, and to evaluate the standardized procedures for protecting medical staff.
+Methods
+id="Par2"&gt;We retrospectively reviewed the cases of parturients diagnosed with severe acute respiratory syndrome coronavirus (SARS-CoV-2) infection disease (COVID-19).
+ Their epidemiologic history, chest computed tomography scans, laboratory measurements, and SARS-CoV-2 nucleic acid positivity were evaluated.
+ We also recorded the patients’ demographic and clinical characteristics, anesthesia and surgery-related data, maternal and neonatal complications, as well as the health status of the involved medical staff.
+Results
+id="Par3"&gt;The clinical characteristics of 17 pregnant women infected with SARS-CoV-2 were similar to those previously reported in non-pregnant adult patients.
+ All of the 17 patients underwent Cesarean delivery with anesthesia performed according to standardized anesthesia/surgery procedures.
+ Fourteen of the patients underwent continuous epidural anesthesia with 12 experiencing significant intraoperative hypotension.
+ Three patients received general anesthesia with tracheal intubation because emergency surgery was needed.
+ Three of the parturients are still recovering from their Cesarean delivery and are receiving in-hospital treatment for COVID-19. Three neonates were born prematurely.
+ There were no deaths or serious neonatal asphyxia events.
+ All neonatal SARS-CoV-2 nucleic acid tests were negative.
+ No medical staff were infected throughout the patient care period.
+Conclusions
+id="Par4"&gt;Both epidural and general anesthesia were safely used for Cesarean delivery in the parturients with COVID-19. Nevertheless, the incidence of hypotension during epidural anesthesia appeared excessive.
+ Proper patient transfer, medical staff access procedures, and effective biosafety precautions are important to protect medical staff from COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,  Yuan%Zhang%NULL%1,  Lei%Huang%NULL%0,  Bi-heng%Cheng%NULL%1,  Zhong-yuan%Xia%NULL%1,  Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+To assess the management and safety of epidural or general anesthesia for Cesarean delivery in parturients with coronavirus disease (COVID-19) and their newborns, and to evaluate the standardized procedures for protecting medical staff.
+Methods
+We retrospectively reviewed the cases of parturients diagnosed with severe acute respiratory syndrome coronavirus (SARS-CoV-2) infection disease (COVID-19).
+ Their epidemiologic history, chest computed tomography scans, laboratory measurements, and SARS-CoV-2 nucleic acid positivity were evaluated.
+ We also recorded the patients’ demographic and clinical characteristics, anesthesia and surgery-related data, maternal and neonatal complications, as well as the health status of the involved medical staff.
+Results
+id="Par3"&gt;The clinical characteristics of 17 pregnant women infected with SARS-CoV-2 were similar to those previously reported in non-pregnant adult patients.
+ All of the 17 patients underwent Cesarean delivery with anesthesia performed according to standardized anesthesia/surgery procedures.
+ Fourteen of the patients underwent continuous epidural anesthesia with 12 experiencing significant intraoperative hypotension.
+ Three patients received general anesthesia with tracheal intubation because emergency surgery was needed.
+ Three of the parturients are still recovering from their Cesarean delivery and are receiving in-hospital treatment for COVID-19. Three neonates were born prematurely.
+ There were no deaths or serious neonatal asphyxia events.
+ All neonatal SARS-CoV-2 nucleic acid tests were negative.
+ No medical staff were infected throughout the patient care period.
+Conclusions
+id="Par4"&gt;Both epidural and general anesthesia were safely used for Cesarean delivery in the parturients with COVID-19. Nevertheless, the incidence of hypotension during epidural anesthesia appeared excessive.
+ Proper patient transfer, medical staff access procedures, and effective biosafety precautions are important to protect medical staff from COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,   Yuan%Zhang%NULL%1,   Lei%Huang%NULL%1,   Bi-heng%Cheng%NULL%1,   Zhong-yuan%Xia%NULL%1,   Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+To assess the management and safety of epidural or general anesthesia for Cesarean delivery in parturients with coronavirus disease (COVID-19) and their newborns, and to evaluate the standardized procedures for protecting medical staff.
+Methods
+We retrospectively reviewed the cases of parturients diagnosed with severe acute respiratory syndrome coronavirus (SARS-CoV-2) infection disease (COVID-19).
+ Their epidemiologic history, chest computed tomography scans, laboratory measurements, and SARS-CoV-2 nucleic acid positivity were evaluated.
+ We also recorded the patients’ demographic and clinical characteristics, anesthesia and surgery-related data, maternal and neonatal complications, as well as the health status of the involved medical staff.
+Results
+The clinical characteristics of 17 pregnant women infected with SARS-CoV-2 were similar to those previously reported in non-pregnant adult patients.
+ All of the 17 patients underwent Cesarean delivery with anesthesia performed according to standardized anesthesia/surgery procedures.
+ Fourteen of the patients underwent continuous epidural anesthesia with 12 experiencing significant intraoperative hypotension.
+ Three patients received general anesthesia with tracheal intubation because emergency surgery was needed.
+ Three of the parturients are still recovering from their Cesarean delivery and are receiving in-hospital treatment for COVID-19. Three neonates were born prematurely.
+ There were no deaths or serious neonatal asphyxia events.
+ All neonatal SARS-CoV-2 nucleic acid tests were negative.
+ No medical staff were infected throughout the patient care period.
+Conclusions
+id="Par4"&gt;Both epidural and general anesthesia were safely used for Cesarean delivery in the parturients with COVID-19. Nevertheless, the incidence of hypotension during epidural anesthesia appeared excessive.
+ Proper patient transfer, medical staff access procedures, and effective biosafety precautions are important to protect medical staff from COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,    Yuan%Zhang%NULL%1,    Lei%Huang%NULL%0,    Bi-heng%Cheng%NULL%1,    Zhong-yuan%Xia%NULL%1,    Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+To assess the management and safety of epidural or general anesthesia for Cesarean delivery in parturients with coronavirus disease (COVID-19) and their newborns, and to evaluate the standardized procedures for protecting medical staff.
+Methods
+We retrospectively reviewed the cases of parturients diagnosed with severe acute respiratory syndrome coronavirus (SARS-CoV-2) infection disease (COVID-19).
+ Their epidemiologic history, chest computed tomography scans, laboratory measurements, and SARS-CoV-2 nucleic acid positivity were evaluated.
+ We also recorded the patients’ demographic and clinical characteristics, anesthesia and surgery-related data, maternal and neonatal complications, as well as the health status of the involved medical staff.
+Results
+The clinical characteristics of 17 pregnant women infected with SARS-CoV-2 were similar to those previously reported in non-pregnant adult patients.
+ All of the 17 patients underwent Cesarean delivery with anesthesia performed according to standardized anesthesia/surgery procedures.
+ Fourteen of the patients underwent continuous epidural anesthesia with 12 experiencing significant intraoperative hypotension.
+ Three patients received general anesthesia with tracheal intubation because emergency surgery was needed.
+ Three of the parturients are still recovering from their Cesarean delivery and are receiving in-hospital treatment for COVID-19. Three neonates were born prematurely.
+ There were no deaths or serious neonatal asphyxia events.
+ All neonatal SARS-CoV-2 nucleic acid tests were negative.
+ No medical staff were infected throughout the patient care period.
+Conclusions
+Both epidural and general anesthesia were safely used for Cesarean delivery in the parturients with COVID-19. Nevertheless, the incidence of hypotension during epidural anesthesia appeared excessive.
+ Proper patient transfer, medical staff access procedures, and effective biosafety precautions are important to protect medical staff from COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,     Yuan%Zhang%NULL%1,     Lei%Huang%NULL%1,     Bi-heng%Cheng%NULL%1,     Zhong-yuan%Xia%NULL%1,     Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
   </si>
 </sst>
 </file>
@@ -679,10 +775,10 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>

--- a/Covid_19_Dataset_and_References/References/27.xlsx
+++ b/Covid_19_Dataset_and_References/References/27.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="77">
   <si>
     <t>Doi</t>
   </si>
@@ -343,102 +343,6 @@
   </si>
   <si>
     <t>2020-03-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-To assess the management and safety of epidural or general anesthesia for Cesarean delivery in parturients with coronavirus disease (COVID-19) and their newborns, and to evaluate the standardized procedures for protecting medical staff.
-Methods
-id="Par2"&gt;We retrospectively reviewed the cases of parturients diagnosed with severe acute respiratory syndrome coronavirus (SARS-CoV-2) infection disease (COVID-19).
- Their epidemiologic history, chest computed tomography scans, laboratory measurements, and SARS-CoV-2 nucleic acid positivity were evaluated.
- We also recorded the patients’ demographic and clinical characteristics, anesthesia and surgery-related data, maternal and neonatal complications, as well as the health status of the involved medical staff.
-Results
-id="Par3"&gt;The clinical characteristics of 17 pregnant women infected with SARS-CoV-2 were similar to those previously reported in non-pregnant adult patients.
- All of the 17 patients underwent Cesarean delivery with anesthesia performed according to standardized anesthesia/surgery procedures.
- Fourteen of the patients underwent continuous epidural anesthesia with 12 experiencing significant intraoperative hypotension.
- Three patients received general anesthesia with tracheal intubation because emergency surgery was needed.
- Three of the parturients are still recovering from their Cesarean delivery and are receiving in-hospital treatment for COVID-19. Three neonates were born prematurely.
- There were no deaths or serious neonatal asphyxia events.
- All neonatal SARS-CoV-2 nucleic acid tests were negative.
- No medical staff were infected throughout the patient care period.
-Conclusions
-id="Par4"&gt;Both epidural and general anesthesia were safely used for Cesarean delivery in the parturients with COVID-19. Nevertheless, the incidence of hypotension during epidural anesthesia appeared excessive.
- Proper patient transfer, medical staff access procedures, and effective biosafety precautions are important to protect medical staff from COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Rong%Chen%NULL%2,  Yuan%Zhang%NULL%1,  Lei%Huang%NULL%0,  Bi-heng%Cheng%NULL%1,  Zhong-yuan%Xia%NULL%1,  Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-To assess the management and safety of epidural or general anesthesia for Cesarean delivery in parturients with coronavirus disease (COVID-19) and their newborns, and to evaluate the standardized procedures for protecting medical staff.
-Methods
-We retrospectively reviewed the cases of parturients diagnosed with severe acute respiratory syndrome coronavirus (SARS-CoV-2) infection disease (COVID-19).
- Their epidemiologic history, chest computed tomography scans, laboratory measurements, and SARS-CoV-2 nucleic acid positivity were evaluated.
- We also recorded the patients’ demographic and clinical characteristics, anesthesia and surgery-related data, maternal and neonatal complications, as well as the health status of the involved medical staff.
-Results
-id="Par3"&gt;The clinical characteristics of 17 pregnant women infected with SARS-CoV-2 were similar to those previously reported in non-pregnant adult patients.
- All of the 17 patients underwent Cesarean delivery with anesthesia performed according to standardized anesthesia/surgery procedures.
- Fourteen of the patients underwent continuous epidural anesthesia with 12 experiencing significant intraoperative hypotension.
- Three patients received general anesthesia with tracheal intubation because emergency surgery was needed.
- Three of the parturients are still recovering from their Cesarean delivery and are receiving in-hospital treatment for COVID-19. Three neonates were born prematurely.
- There were no deaths or serious neonatal asphyxia events.
- All neonatal SARS-CoV-2 nucleic acid tests were negative.
- No medical staff were infected throughout the patient care period.
-Conclusions
-id="Par4"&gt;Both epidural and general anesthesia were safely used for Cesarean delivery in the parturients with COVID-19. Nevertheless, the incidence of hypotension during epidural anesthesia appeared excessive.
- Proper patient transfer, medical staff access procedures, and effective biosafety precautions are important to protect medical staff from COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Rong%Chen%NULL%2,   Yuan%Zhang%NULL%1,   Lei%Huang%NULL%1,   Bi-heng%Cheng%NULL%1,   Zhong-yuan%Xia%NULL%1,   Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-To assess the management and safety of epidural or general anesthesia for Cesarean delivery in parturients with coronavirus disease (COVID-19) and their newborns, and to evaluate the standardized procedures for protecting medical staff.
-Methods
-We retrospectively reviewed the cases of parturients diagnosed with severe acute respiratory syndrome coronavirus (SARS-CoV-2) infection disease (COVID-19).
- Their epidemiologic history, chest computed tomography scans, laboratory measurements, and SARS-CoV-2 nucleic acid positivity were evaluated.
- We also recorded the patients’ demographic and clinical characteristics, anesthesia and surgery-related data, maternal and neonatal complications, as well as the health status of the involved medical staff.
-Results
-The clinical characteristics of 17 pregnant women infected with SARS-CoV-2 were similar to those previously reported in non-pregnant adult patients.
- All of the 17 patients underwent Cesarean delivery with anesthesia performed according to standardized anesthesia/surgery procedures.
- Fourteen of the patients underwent continuous epidural anesthesia with 12 experiencing significant intraoperative hypotension.
- Three patients received general anesthesia with tracheal intubation because emergency surgery was needed.
- Three of the parturients are still recovering from their Cesarean delivery and are receiving in-hospital treatment for COVID-19. Three neonates were born prematurely.
- There were no deaths or serious neonatal asphyxia events.
- All neonatal SARS-CoV-2 nucleic acid tests were negative.
- No medical staff were infected throughout the patient care period.
-Conclusions
-id="Par4"&gt;Both epidural and general anesthesia were safely used for Cesarean delivery in the parturients with COVID-19. Nevertheless, the incidence of hypotension during epidural anesthesia appeared excessive.
- Proper patient transfer, medical staff access procedures, and effective biosafety precautions are important to protect medical staff from COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Rong%Chen%NULL%2,    Yuan%Zhang%NULL%1,    Lei%Huang%NULL%0,    Bi-heng%Cheng%NULL%1,    Zhong-yuan%Xia%NULL%1,    Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-To assess the management and safety of epidural or general anesthesia for Cesarean delivery in parturients with coronavirus disease (COVID-19) and their newborns, and to evaluate the standardized procedures for protecting medical staff.
-Methods
-We retrospectively reviewed the cases of parturients diagnosed with severe acute respiratory syndrome coronavirus (SARS-CoV-2) infection disease (COVID-19).
- Their epidemiologic history, chest computed tomography scans, laboratory measurements, and SARS-CoV-2 nucleic acid positivity were evaluated.
- We also recorded the patients’ demographic and clinical characteristics, anesthesia and surgery-related data, maternal and neonatal complications, as well as the health status of the involved medical staff.
-Results
-The clinical characteristics of 17 pregnant women infected with SARS-CoV-2 were similar to those previously reported in non-pregnant adult patients.
- All of the 17 patients underwent Cesarean delivery with anesthesia performed according to standardized anesthesia/surgery procedures.
- Fourteen of the patients underwent continuous epidural anesthesia with 12 experiencing significant intraoperative hypotension.
- Three patients received general anesthesia with tracheal intubation because emergency surgery was needed.
- Three of the parturients are still recovering from their Cesarean delivery and are receiving in-hospital treatment for COVID-19. Three neonates were born prematurely.
- There were no deaths or serious neonatal asphyxia events.
- All neonatal SARS-CoV-2 nucleic acid tests were negative.
- No medical staff were infected throughout the patient care period.
-Conclusions
-Both epidural and general anesthesia were safely used for Cesarean delivery in the parturients with COVID-19. Nevertheless, the incidence of hypotension during epidural anesthesia appeared excessive.
- Proper patient transfer, medical staff access procedures, and effective biosafety precautions are important to protect medical staff from COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Rong%Chen%NULL%2,     Yuan%Zhang%NULL%1,     Lei%Huang%NULL%1,     Bi-heng%Cheng%NULL%1,     Zhong-yuan%Xia%NULL%1,     Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
   </si>
 </sst>
 </file>
@@ -775,10 +679,10 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>

--- a/Covid_19_Dataset_and_References/References/27.xlsx
+++ b/Covid_19_Dataset_and_References/References/27.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="93">
   <si>
     <t>Doi</t>
   </si>
@@ -343,6 +343,54 @@
   </si>
   <si>
     <t>2020-03-17</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,  Yuan%Zhang%NULL%1,  Lei%Huang%NULL%1,  Bi-heng%Cheng%NULL%1,  Zhong-yuan%Xia%NULL%1,  Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,  L.%Jun%NULL%1,  NULL%Nawsherwan%NULL%1,  R.%Siddique%NULL%1,  Y.%Li%NULL%2,  G.%Han%hg7913@hotmail.com%1,  M.%Xue%xuemengzhou@zzu.edu.cn%1,  G.%Nabi%ghulamnabiqau@gmail.com%1,  J.%Liu%jbliuzz@163.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,  Ruihong%Sun%NULL%1,  Jianpu%Chen%NULL%1,  Yuanliang%Xie%NULL%1,  Shutong%Zhang%NULL%1,  Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,  Qin%Li%NULL%1,  Danni%Zheng%NULL%1,  Hai%Jiang%NULL%1,  Yuan%Wei%NULL%5,  Li%Zou%NULL%2,  Li%Zou%NULL%0,  Ling%Feng%NULL%3,  Ling%Feng%NULL%0,  Guoping%Xiong%NULL%3,  Guoping%Xiong%NULL%0,  Guoqiang%Sun%NULL%4,  Guoqiang%Sun%NULL%0,  Haibo%Wang%NULL%2,  Haibo%Wang%NULL%0,  Yangyu%Zhao%NULL%2,  Yangyu%Zhao%NULL%0,  Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,  Juanjuan%Guo%NULL%2,  Cuifang%Fan%NULL%1,  Juan%Juan%NULL%1,  Xuechen%Yu%NULL%2,  Jiafu%Li%NULL%2,  Ling%Feng%NULL%0,  Chunyan%Li%NULL%1,  Huijun%Chen%NULL%1,  Yuan%Qiao%NULL%1,  Di%Lei%NULL%1,  Chen%Wang%NULL%2,  Guoping%Xiong%NULL%0,  Fengyi%Xiao%NULL%1,  Wencong%He%NULL%1,  Qiumei%Pang%NULL%1,  Xiaoling%Hu%NULL%1,  Suqing%Wang%NULL%1,  Dunjin%Chen%NULL%1,  Yuanzhen%Zhang%NULL%2,  Liona C.%Poon%NULL%1,  Huixia%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,  Lefei%Han%NULL%1,  Min%Peng%2658706528@qq.com%2,  Yuxia%Lv%NULL%1,  Yin%Ouyang%NULL%1,  Kui%Liu%NULL%1,  Linli%Yue%NULL%1,  Qiannan%Li%NULL%1,  Guoqiang%Sun%NULL%0,  Lin%Chen%NULL%1,  Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,   R.% Chen%null%1,   J.% Wang%null%1,   Y.% Gong%null%1,   Q.% Zhou%null%1,   H.-h.% Cheng%null%1,   Z.-y.% Xia%null%1,   X.% Chen%null%1,   Q.-t.% Meng%null%1,   D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,  Luigi%Frigerio%NULL%1,  Irene%Cetin%NULL%1,  Patrizia%Vergani%NULL%1,  Arsenio%Spinillo%NULL%1,  Federico%Prefumo%NULL%1,  Edda%Pellegrini%NULL%1,  Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,  Caitlin%Baptiste%NULL%1,  Cynthia%Gyamfi-Bannerman%NULL%1,  Russell%Miller%NULL%1,  Rebecca%Martinez%NULL%1,  Kyra%Bernstein%NULL%1,  Laurence%Ring%NULL%1,  Ruth%Landau%NULL%1,  Stephanie%Purisch%NULL%1,  Alexander M.%Friedman%NULL%1,  Karin%Fuchs%NULL%2,  Desmond%Sutton%NULL%1,  Maria%Andrikopoulou%NULL%1,  Devon%Rupley%NULL%1,  Jean-Ju%Sheen%NULL%1,  Janice%Aubey%NULL%1,  Noelia%Zork%NULL%1,  Leslie%Moroz%NULL%1,  Mirella%Mourad%NULL%1,  Ronald%Wapner%NULL%1,  Lynn L.%Simpson%NULL%1,  Mary E.%D’Alton%NULL%1,  Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,  Karin%Fuchs%NULL%0,  Mary%D’Alton%NULL%1,  Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,  Jing%Wang%NULL%1,  Wenbin%Li%NULL%1,  Zhaoxian%Zhou%NULL%1,  Siying%Liu%NULL%1,  Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -667,6 +715,9 @@
       <c r="H1" t="s">
         <v>26</v>
       </c>
+      <c r="I1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -682,7 +733,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -692,6 +743,9 @@
       </c>
       <c r="H2" t="s">
         <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3">
@@ -719,6 +773,9 @@
       <c r="H3" t="s">
         <v>33</v>
       </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
@@ -734,7 +791,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -744,6 +801,9 @@
       </c>
       <c r="H4" t="s">
         <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -760,7 +820,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -770,6 +830,9 @@
       </c>
       <c r="H5" t="s">
         <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -786,7 +849,7 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -796,6 +859,9 @@
       </c>
       <c r="H6" t="s">
         <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -812,7 +878,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -822,6 +888,9 @@
       </c>
       <c r="H7" t="s">
         <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -849,6 +918,9 @@
       <c r="H8" t="s">
         <v>33</v>
       </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -864,7 +936,7 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
@@ -874,6 +946,9 @@
       </c>
       <c r="H9" t="s">
         <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -890,16 +965,19 @@
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
         <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11">
@@ -916,7 +994,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -926,6 +1004,9 @@
       </c>
       <c r="H11" t="s">
         <v>64</v>
+      </c>
+      <c r="I11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -942,7 +1023,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -952,6 +1033,9 @@
       </c>
       <c r="H12" t="s">
         <v>33</v>
+      </c>
+      <c r="I12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -968,7 +1052,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -978,6 +1062,9 @@
       </c>
       <c r="H13" t="s">
         <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -994,7 +1081,7 @@
         <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>
@@ -1004,6 +1091,9 @@
       </c>
       <c r="H14" t="s">
         <v>76</v>
+      </c>
+      <c r="I14" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/27.xlsx
+++ b/Covid_19_Dataset_and_References/References/27.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="137">
   <si>
     <t>Doi</t>
   </si>
@@ -391,6 +391,138 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,  Jing%Wang%NULL%1,  Wenbin%Li%NULL%1,  Zhaoxian%Zhou%NULL%1,  Siying%Liu%NULL%1,  Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,   Yuan%Zhang%NULL%1,   Lei%Huang%NULL%0,   Bi-heng%Cheng%NULL%1,   Zhong-yuan%Xia%NULL%1,   Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,   L.%Jun%NULL%1,   NULL%Nawsherwan%NULL%1,   R.%Siddique%NULL%1,   Y.%Li%NULL%1,   G.%Han%hg7913@hotmail.com%1,   M.%Xue%xuemengzhou@zzu.edu.cn%1,   G.%Nabi%ghulamnabiqau@gmail.com%1,   J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,   Ruihong%Sun%NULL%1,   Jianpu%Chen%NULL%1,   Yuanliang%Xie%NULL%1,   Shutong%Zhang%NULL%1,   Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,   Qin%Li%NULL%1,   Danni%Zheng%NULL%1,   Hai%Jiang%NULL%1,   Yuan%Wei%NULL%0,   Li%Zou%NULL%2,   Li%Zou%NULL%0,   Ling%Feng%NULL%3,   Ling%Feng%NULL%0,   Guoping%Xiong%NULL%3,   Guoping%Xiong%NULL%0,   Guoqiang%Sun%NULL%4,   Guoqiang%Sun%NULL%0,   Haibo%Wang%NULL%2,   Haibo%Wang%NULL%0,   Yangyu%Zhao%NULL%2,   Yangyu%Zhao%NULL%0,   Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,   Juanjuan%Guo%NULL%0,   Cuifang%Fan%NULL%1,   Juan%Juan%NULL%1,   Xuechen%Yu%NULL%0,   Jiafu%Li%NULL%0,   Ling%Feng%NULL%0,   Chunyan%Li%NULL%1,   Huijun%Chen%NULL%1,   Yuan%Qiao%NULL%1,   Di%Lei%NULL%1,   Chen%Wang%NULL%0,   Guoping%Xiong%NULL%0,   Fengyi%Xiao%NULL%1,   Wencong%He%NULL%1,   Qiumei%Pang%NULL%1,   Xiaoling%Hu%NULL%1,   Suqing%Wang%NULL%1,   Dunjin%Chen%NULL%1,   Yuanzhen%Zhang%NULL%0,   Liona C.%Poon%NULL%1,   Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,   Lefei%Han%NULL%1,   Min%Peng%2658706528@qq.com%2,   Yuxia%Lv%NULL%1,   Yin%Ouyang%NULL%1,   Kui%Liu%NULL%0,   Linli%Yue%NULL%1,   Qiannan%Li%NULL%1,   Guoqiang%Sun%NULL%0,   Lin%Chen%NULL%1,   Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,    R.% Chen%null%1,    J.% Wang%null%1,    Y.% Gong%null%1,    Q.% Zhou%null%1,    H.-h.% Cheng%null%1,    Z.-y.% Xia%null%1,    X.% Chen%null%1,    Q.-t.% Meng%null%1,    D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,   Luigi%Frigerio%NULL%1,   Irene%Cetin%NULL%1,   Patrizia%Vergani%NULL%1,   Arsenio%Spinillo%NULL%1,   Federico%Prefumo%NULL%1,   Edda%Pellegrini%NULL%1,   Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,   Caitlin%Baptiste%NULL%1,   Cynthia%Gyamfi-Bannerman%NULL%1,   Russell%Miller%NULL%1,   Rebecca%Martinez%NULL%1,   Kyra%Bernstein%NULL%1,   Laurence%Ring%NULL%1,   Ruth%Landau%NULL%1,   Stephanie%Purisch%NULL%1,   Alexander M.%Friedman%NULL%1,   Karin%Fuchs%NULL%2,   Desmond%Sutton%NULL%1,   Maria%Andrikopoulou%NULL%1,   Devon%Rupley%NULL%1,   Jean-Ju%Sheen%NULL%1,   Janice%Aubey%NULL%1,   Noelia%Zork%NULL%1,   Leslie%Moroz%NULL%1,   Mirella%Mourad%NULL%1,   Ronald%Wapner%NULL%1,   Lynn L.%Simpson%NULL%1,   Mary E.%D’Alton%NULL%1,   Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,   Karin%Fuchs%NULL%0,   Mary%D’Alton%NULL%1,   Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,   Jing%Wang%NULL%1,   Wenbin%Li%NULL%1,   Zhaoxian%Zhou%NULL%1,   Siying%Liu%NULL%1,   Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,    Yuan%Zhang%NULL%2,    Lei%Huang%NULL%0,    Bi-heng%Cheng%NULL%2,    Zhong-yuan%Xia%NULL%2,    Qing-tao%Meng%mengqingtao2018@126.com%2]</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,    L.%Jun%NULL%1,    NULL%Nawsherwan%NULL%1,    R.%Siddique%NULL%1,    Y.%Li%NULL%1,    G.%Han%hg7913@hotmail.com%1,    M.%Xue%xuemengzhou@zzu.edu.cn%1,    G.%Nabi%ghulamnabiqau@gmail.com%1,    J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,    Ruihong%Sun%NULL%1,    Jianpu%Chen%NULL%1,    Yuanliang%Xie%NULL%1,    Shutong%Zhang%NULL%1,    Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,    Qin%Li%NULL%1,    Danni%Zheng%NULL%1,    Hai%Jiang%NULL%1,    Yuan%Wei%NULL%0,    Li%Zou%NULL%2,    Li%Zou%NULL%0,    Ling%Feng%NULL%3,    Ling%Feng%NULL%0,    Guoping%Xiong%NULL%3,    Guoping%Xiong%NULL%0,    Guoqiang%Sun%NULL%4,    Guoqiang%Sun%NULL%0,    Haibo%Wang%NULL%2,    Haibo%Wang%NULL%0,    Yangyu%Zhao%NULL%2,    Yangyu%Zhao%NULL%0,    Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,    Juanjuan%Guo%NULL%0,    Cuifang%Fan%NULL%1,    Juan%Juan%NULL%1,    Xuechen%Yu%NULL%0,    Jiafu%Li%NULL%0,    Ling%Feng%NULL%0,    Chunyan%Li%NULL%1,    Huijun%Chen%NULL%1,    Yuan%Qiao%NULL%1,    Di%Lei%NULL%1,    Chen%Wang%NULL%0,    Guoping%Xiong%NULL%0,    Fengyi%Xiao%NULL%1,    Wencong%He%NULL%1,    Qiumei%Pang%NULL%1,    Xiaoling%Hu%NULL%1,    Suqing%Wang%NULL%1,    Dunjin%Chen%NULL%1,    Yuanzhen%Zhang%NULL%0,    Liona C.%Poon%NULL%1,    Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,    Lefei%Han%NULL%1,    Min%Peng%2658706528@qq.com%2,    Yuxia%Lv%NULL%1,    Yin%Ouyang%NULL%1,    Kui%Liu%NULL%0,    Linli%Yue%NULL%1,    Qiannan%Li%NULL%1,    Guoqiang%Sun%NULL%0,    Lin%Chen%NULL%2,    Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,     R.% Chen%null%1,     J.% Wang%null%1,     Y.% Gong%null%1,     Q.% Zhou%null%2,     H.-h.% Cheng%null%1,     Z.-y.% Xia%null%1,     X.% Chen%null%1,     Q.-t.% Meng%null%1,     D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,    Luigi%Frigerio%NULL%1,    Irene%Cetin%NULL%1,    Patrizia%Vergani%NULL%1,    Arsenio%Spinillo%NULL%1,    Federico%Prefumo%NULL%1,    Edda%Pellegrini%NULL%1,    Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,    Caitlin%Baptiste%NULL%1,    Cynthia%Gyamfi-Bannerman%NULL%1,    Russell%Miller%NULL%1,    Rebecca%Martinez%NULL%1,    Kyra%Bernstein%NULL%1,    Laurence%Ring%NULL%1,    Ruth%Landau%NULL%1,    Stephanie%Purisch%NULL%1,    Alexander M.%Friedman%NULL%1,    Karin%Fuchs%NULL%2,    Desmond%Sutton%NULL%1,    Maria%Andrikopoulou%NULL%1,    Devon%Rupley%NULL%1,    Jean-Ju%Sheen%NULL%1,    Janice%Aubey%NULL%1,    Noelia%Zork%NULL%1,    Leslie%Moroz%NULL%1,    Mirella%Mourad%NULL%1,    Ronald%Wapner%NULL%1,    Lynn L.%Simpson%NULL%1,    Mary E.%D’Alton%NULL%1,    Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,    Karin%Fuchs%NULL%0,    Mary%D’Alton%NULL%1,    Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,    Jing%Wang%NULL%1,    Wenbin%Li%NULL%1,    Zhaoxian%Zhou%NULL%1,    Siying%Liu%NULL%1,    Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,     Yuan%Zhang%NULL%2,     Lei%Huang%NULL%0,     Bi-heng%Cheng%NULL%2,     Zhong-yuan%Xia%NULL%2,     Qing-tao%Meng%mengqingtao2018@126.com%2]</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,     L.%Jun%NULL%1,     NULL%Nawsherwan%NULL%1,     R.%Siddique%NULL%1,     Y.%Li%NULL%1,     G.%Han%hg7913@hotmail.com%1,     M.%Xue%xuemengzhou@zzu.edu.cn%1,     G.%Nabi%ghulamnabiqau@gmail.com%1,     J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,     Ruihong%Sun%NULL%1,     Jianpu%Chen%NULL%1,     Yuanliang%Xie%NULL%1,     Shutong%Zhang%NULL%1,     Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,     Qin%Li%NULL%1,     Danni%Zheng%NULL%1,     Hai%Jiang%NULL%1,     Yuan%Wei%NULL%0,     Li%Zou%NULL%2,     Li%Zou%NULL%0,     Ling%Feng%NULL%3,     Ling%Feng%NULL%0,     Guoping%Xiong%NULL%3,     Guoping%Xiong%NULL%0,     Guoqiang%Sun%NULL%4,     Guoqiang%Sun%NULL%0,     Haibo%Wang%NULL%2,     Haibo%Wang%NULL%0,     Yangyu%Zhao%NULL%2,     Yangyu%Zhao%NULL%0,     Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,     Juanjuan%Guo%NULL%0,     Cuifang%Fan%NULL%1,     Juan%Juan%NULL%1,     Xuechen%Yu%NULL%0,     Jiafu%Li%NULL%0,     Ling%Feng%NULL%0,     Chunyan%Li%NULL%1,     Huijun%Chen%NULL%1,     Yuan%Qiao%NULL%1,     Di%Lei%NULL%1,     Chen%Wang%NULL%0,     Guoping%Xiong%NULL%0,     Fengyi%Xiao%NULL%1,     Wencong%He%NULL%1,     Qiumei%Pang%NULL%1,     Xiaoling%Hu%NULL%1,     Suqing%Wang%NULL%1,     Dunjin%Chen%NULL%1,     Yuanzhen%Zhang%NULL%0,     Liona C.%Poon%NULL%1,     Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,     Lefei%Han%NULL%1,     Min%Peng%2658706528@qq.com%2,     Yuxia%Lv%NULL%1,     Yin%Ouyang%NULL%1,     Kui%Liu%NULL%0,     Linli%Yue%NULL%1,     Qiannan%Li%NULL%1,     Guoqiang%Sun%NULL%0,     Lin%Chen%NULL%2,     Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,      R.% Chen%null%1,      J.% Wang%null%1,      Y.% Gong%null%1,      Q.% Zhou%null%2,      H.-h.% Cheng%null%1,      Z.-y.% Xia%null%1,      X.% Chen%null%1,      Q.-t.% Meng%null%1,      D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,     Luigi%Frigerio%NULL%1,     Irene%Cetin%NULL%1,     Patrizia%Vergani%NULL%1,     Arsenio%Spinillo%NULL%1,     Federico%Prefumo%NULL%1,     Edda%Pellegrini%NULL%1,     Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,     Caitlin%Baptiste%NULL%1,     Cynthia%Gyamfi-Bannerman%NULL%1,     Russell%Miller%NULL%1,     Rebecca%Martinez%NULL%1,     Kyra%Bernstein%NULL%1,     Laurence%Ring%NULL%1,     Ruth%Landau%NULL%1,     Stephanie%Purisch%NULL%1,     Alexander M.%Friedman%NULL%1,     Karin%Fuchs%NULL%2,     Desmond%Sutton%NULL%1,     Maria%Andrikopoulou%NULL%1,     Devon%Rupley%NULL%1,     Jean-Ju%Sheen%NULL%1,     Janice%Aubey%NULL%1,     Noelia%Zork%NULL%1,     Leslie%Moroz%NULL%1,     Mirella%Mourad%NULL%1,     Ronald%Wapner%NULL%1,     Lynn L.%Simpson%NULL%1,     Mary E.%D’Alton%NULL%1,     Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,     Karin%Fuchs%NULL%0,     Mary%D’Alton%NULL%1,     Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,     Jing%Wang%NULL%1,     Wenbin%Li%NULL%1,     Zhaoxian%Zhou%NULL%1,     Siying%Liu%NULL%1,     Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,      Yuan%Zhang%NULL%2,      Lei%Huang%NULL%0,      Bi-heng%Cheng%NULL%2,      Zhong-yuan%Xia%NULL%2,      Qing-tao%Meng%mengqingtao2018@126.com%2]</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,      L.%Jun%NULL%1,      NULL%Nawsherwan%NULL%1,      R.%Siddique%NULL%1,      Y.%Li%NULL%1,      G.%Han%hg7913@hotmail.com%1,      M.%Xue%xuemengzhou@zzu.edu.cn%1,      G.%Nabi%ghulamnabiqau@gmail.com%1,      J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,      Ruihong%Sun%NULL%1,      Jianpu%Chen%NULL%1,      Yuanliang%Xie%NULL%1,      Shutong%Zhang%NULL%1,      Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,      Qin%Li%NULL%1,      Danni%Zheng%NULL%1,      Hai%Jiang%NULL%1,      Yuan%Wei%NULL%0,      Li%Zou%NULL%2,      Li%Zou%NULL%0,      Ling%Feng%NULL%3,      Ling%Feng%NULL%0,      Guoping%Xiong%NULL%3,      Guoping%Xiong%NULL%0,      Guoqiang%Sun%NULL%4,      Guoqiang%Sun%NULL%0,      Haibo%Wang%NULL%2,      Haibo%Wang%NULL%0,      Yangyu%Zhao%NULL%2,      Yangyu%Zhao%NULL%0,      Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,      Juanjuan%Guo%NULL%0,      Cuifang%Fan%NULL%1,      Juan%Juan%NULL%1,      Xuechen%Yu%NULL%0,      Jiafu%Li%NULL%0,      Ling%Feng%NULL%0,      Chunyan%Li%NULL%1,      Huijun%Chen%NULL%1,      Yuan%Qiao%NULL%1,      Di%Lei%NULL%1,      Chen%Wang%NULL%0,      Guoping%Xiong%NULL%0,      Fengyi%Xiao%NULL%1,      Wencong%He%NULL%1,      Qiumei%Pang%NULL%1,      Xiaoling%Hu%NULL%1,      Suqing%Wang%NULL%1,      Dunjin%Chen%NULL%1,      Yuanzhen%Zhang%NULL%0,      Liona C.%Poon%NULL%1,      Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,      Lefei%Han%NULL%1,      Min%Peng%2658706528@qq.com%2,      Yuxia%Lv%NULL%1,      Yin%Ouyang%NULL%1,      Kui%Liu%NULL%0,      Linli%Yue%NULL%1,      Qiannan%Li%NULL%1,      Guoqiang%Sun%NULL%0,      Lin%Chen%NULL%2,      Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,       R.% Chen%null%1,       J.% Wang%null%1,       Y.% Gong%null%1,       Q.% Zhou%null%2,       H.-h.% Cheng%null%1,       Z.-y.% Xia%null%1,       X.% Chen%null%1,       Q.-t.% Meng%null%1,       D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,      Luigi%Frigerio%NULL%1,      Irene%Cetin%NULL%1,      Patrizia%Vergani%NULL%1,      Arsenio%Spinillo%NULL%1,      Federico%Prefumo%NULL%1,      Edda%Pellegrini%NULL%1,      Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,      Caitlin%Baptiste%NULL%1,      Cynthia%Gyamfi-Bannerman%NULL%1,      Russell%Miller%NULL%1,      Rebecca%Martinez%NULL%1,      Kyra%Bernstein%NULL%1,      Laurence%Ring%NULL%1,      Ruth%Landau%NULL%1,      Stephanie%Purisch%NULL%1,      Alexander M.%Friedman%NULL%1,      Karin%Fuchs%NULL%2,      Desmond%Sutton%NULL%1,      Maria%Andrikopoulou%NULL%1,      Devon%Rupley%NULL%1,      Jean-Ju%Sheen%NULL%1,      Janice%Aubey%NULL%1,      Noelia%Zork%NULL%1,      Leslie%Moroz%NULL%1,      Mirella%Mourad%NULL%1,      Ronald%Wapner%NULL%1,      Lynn L.%Simpson%NULL%1,      Mary E.%D’Alton%NULL%1,      Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,      Karin%Fuchs%NULL%0,      Mary%D’Alton%NULL%1,      Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,      Jing%Wang%NULL%1,      Wenbin%Li%NULL%1,      Zhaoxian%Zhou%NULL%1,      Siying%Liu%NULL%1,      Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -733,7 +865,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -791,7 +923,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -820,7 +952,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -849,7 +981,7 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -878,7 +1010,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -936,7 +1068,7 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
@@ -965,7 +1097,7 @@
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -994,7 +1126,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1023,7 +1155,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1052,7 +1184,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -1081,7 +1213,7 @@
         <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/27.xlsx
+++ b/Covid_19_Dataset_and_References/References/27.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="168">
   <si>
     <t>Doi</t>
   </si>
@@ -523,6 +523,99 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,      Jing%Wang%NULL%1,      Wenbin%Li%NULL%1,      Zhaoxian%Zhou%NULL%1,      Siying%Liu%NULL%1,      Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,       Yuan%Zhang%NULL%1,       Lei%Huang%NULL%0,       Bi-heng%Cheng%NULL%1,       Zhong-yuan%Xia%NULL%1,       Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>"Neonatal Early-Onset Infection With SARS-CoV-2 in 33 Neonates Born to Mothers With COVID-19 in Wuhan, China"</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%2, Shiwen%Xia%xref no email%3, Wenhao%Yuan%xref no email%2, Kai%Yan%xref no email%2, Feifan%Xiao%xref no email%2, Jianbo%Shao%xref no email%2, Wenhao%Zhou%xref no email%3]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,       L.%Jun%NULL%1,       NULL%Nawsherwan%NULL%1,       R.%Siddique%NULL%1,       Y.%Li%NULL%1,       G.%Han%hg7913@hotmail.com%1,       M.%Xue%xuemengzhou@zzu.edu.cn%1,       G.%Nabi%ghulamnabiqau@gmail.com%1,       J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,       Ruihong%Sun%NULL%1,       Jianpu%Chen%NULL%1,       Yuanliang%Xie%NULL%1,       Shutong%Zhang%NULL%1,       Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,       Qin%Li%NULL%1,       Danni%Zheng%NULL%1,       Hai%Jiang%NULL%1,       Yuan%Wei%NULL%0,       Li%Zou%NULL%2,       Li%Zou%NULL%0,       Ling%Feng%NULL%3,       Ling%Feng%NULL%0,       Guoping%Xiong%NULL%3,       Guoping%Xiong%NULL%0,       Guoqiang%Sun%NULL%4,       Guoqiang%Sun%NULL%0,       Haibo%Wang%NULL%2,       Haibo%Wang%NULL%0,       Yangyu%Zhao%NULL%2,       Yangyu%Zhao%NULL%0,       Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,       Juanjuan%Guo%NULL%0,       Cuifang%Fan%NULL%1,       Juan%Juan%NULL%1,       Xuechen%Yu%NULL%0,       Jiafu%Li%NULL%0,       Ling%Feng%NULL%0,       Chunyan%Li%NULL%1,       Huijun%Chen%NULL%1,       Yuan%Qiao%NULL%1,       Di%Lei%NULL%1,       Chen%Wang%NULL%0,       Guoping%Xiong%NULL%0,       Fengyi%Xiao%NULL%1,       Wencong%He%NULL%1,       Qiumei%Pang%NULL%1,       Xiaoling%Hu%NULL%1,       Suqing%Wang%NULL%1,       Dunjin%Chen%NULL%1,       Yuanzhen%Zhang%NULL%0,       Liona C.%Poon%NULL%1,       Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Pregnancy and Perinatal Outcomes of Women With Coronavirus Disease (COVID-19) Pneumonia: A Preliminary Analysis"</t>
+  </si>
+  <si>
+    <t>[Dehan%Liu%xref no email%1, Lin%Li%xref no email%1, Xin%Wu%xref no email%1, Dandan%Zheng%xref no email%1, Jiazheng%Wang%xref no email%1, Lian%Yang%xref no email%1, Chuansheng%Zheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-24</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,       Lefei%Han%NULL%1,       Min%Peng%2658706528@qq.com%2,       Yuxia%Lv%NULL%1,       Yin%Ouyang%NULL%1,       Kui%Liu%NULL%0,       Linli%Yue%NULL%1,       Qiannan%Li%NULL%1,       Guoqiang%Sun%NULL%0,       Lin%Chen%NULL%1,       Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,        R.% Chen%null%1,        J.% Wang%null%1,        Y.% Gong%null%1,        Q.% Zhou%null%1,        H.-h.% Cheng%null%1,        Z.-y.% Xia%null%1,        X.% Chen%null%1,        Q.-t.% Meng%null%1,        D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,       Luigi%Frigerio%NULL%1,       Irene%Cetin%NULL%1,       Patrizia%Vergani%NULL%1,       Arsenio%Spinillo%NULL%1,       Federico%Prefumo%NULL%1,       Edda%Pellegrini%NULL%1,       Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,       Caitlin%Baptiste%NULL%1,       Cynthia%Gyamfi-Bannerman%NULL%1,       Russell%Miller%NULL%1,       Rebecca%Martinez%NULL%1,       Kyra%Bernstein%NULL%1,       Laurence%Ring%NULL%1,       Ruth%Landau%NULL%1,       Stephanie%Purisch%NULL%1,       Alexander M.%Friedman%NULL%1,       Karin%Fuchs%NULL%2,       Desmond%Sutton%NULL%1,       Maria%Andrikopoulou%NULL%1,       Devon%Rupley%NULL%1,       Jean-Ju%Sheen%NULL%1,       Janice%Aubey%NULL%1,       Noelia%Zork%NULL%1,       Leslie%Moroz%NULL%1,       Mirella%Mourad%NULL%1,       Ronald%Wapner%NULL%1,       Lynn L.%Simpson%NULL%1,       Mary E.%D’Alton%NULL%1,       Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,       Karin%Fuchs%NULL%0,       Mary%D’Alton%NULL%1,       Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,       Jing%Wang%NULL%1,       Wenbin%Li%NULL%1,       Zhaoxian%Zhou%NULL%1,       Siying%Liu%NULL%1,       Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,        Yuan%Zhang%NULL%1,        Lei%Huang%NULL%0,        Bi-heng%Cheng%NULL%1,        Zhong-yuan%Xia%NULL%1,        Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%2,  Shiwen%Xia%xref no email%3,  Wenhao%Yuan%xref no email%2,  Kai%Yan%xref no email%2,  Feifan%Xiao%xref no email%2,  Jianbo%Shao%xref no email%2,  Wenhao%Zhou%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,        L.%Jun%NULL%1,        NULL%Nawsherwan%NULL%1,        R.%Siddique%NULL%1,        Y.%Li%NULL%1,        G.%Han%hg7913@hotmail.com%1,        M.%Xue%xuemengzhou@zzu.edu.cn%1,        G.%Nabi%ghulamnabiqau@gmail.com%1,        J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,        Ruihong%Sun%NULL%1,        Jianpu%Chen%NULL%1,        Yuanliang%Xie%NULL%1,        Shutong%Zhang%NULL%1,        Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,        Qin%Li%NULL%1,        Danni%Zheng%NULL%1,        Hai%Jiang%NULL%1,        Yuan%Wei%NULL%0,        Li%Zou%NULL%2,        Li%Zou%NULL%0,        Ling%Feng%NULL%3,        Ling%Feng%NULL%0,        Guoping%Xiong%NULL%3,        Guoping%Xiong%NULL%0,        Guoqiang%Sun%NULL%4,        Guoqiang%Sun%NULL%0,        Haibo%Wang%NULL%2,        Haibo%Wang%NULL%0,        Yangyu%Zhao%NULL%2,        Yangyu%Zhao%NULL%0,        Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,        Juanjuan%Guo%NULL%0,        Cuifang%Fan%NULL%1,        Juan%Juan%NULL%1,        Xuechen%Yu%NULL%0,        Jiafu%Li%NULL%0,        Ling%Feng%NULL%0,        Chunyan%Li%NULL%1,        Huijun%Chen%NULL%1,        Yuan%Qiao%NULL%1,        Di%Lei%NULL%1,        Chen%Wang%NULL%0,        Guoping%Xiong%NULL%0,        Fengyi%Xiao%NULL%1,        Wencong%He%NULL%1,        Qiumei%Pang%NULL%1,        Xiaoling%Hu%NULL%1,        Suqing%Wang%NULL%1,        Dunjin%Chen%NULL%1,        Yuanzhen%Zhang%NULL%0,        Liona C.%Poon%NULL%1,        Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dehan%Liu%xref no email%1,  Lin%Li%xref no email%1,  Xin%Wu%xref no email%1,  Dandan%Zheng%xref no email%1,  Jiazheng%Wang%xref no email%1,  Lian%Yang%xref no email%1,  Chuansheng%Zheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,        Lefei%Han%NULL%1,        Min%Peng%2658706528@qq.com%2,        Yuxia%Lv%NULL%1,        Yin%Ouyang%NULL%1,        Kui%Liu%NULL%0,        Linli%Yue%NULL%1,        Qiannan%Li%NULL%1,        Guoqiang%Sun%NULL%0,        Lin%Chen%NULL%1,        Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,         R.% Chen%null%1,         J.% Wang%null%1,         Y.% Gong%null%1,         Q.% Zhou%null%1,         H.-h.% Cheng%null%1,         Z.-y.% Xia%null%1,         X.% Chen%null%1,         Q.-t.% Meng%null%1,         D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,        Luigi%Frigerio%NULL%1,        Irene%Cetin%NULL%1,        Patrizia%Vergani%NULL%1,        Arsenio%Spinillo%NULL%1,        Federico%Prefumo%NULL%1,        Edda%Pellegrini%NULL%1,        Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,        Caitlin%Baptiste%NULL%1,        Cynthia%Gyamfi-Bannerman%NULL%1,        Russell%Miller%NULL%1,        Rebecca%Martinez%NULL%1,        Kyra%Bernstein%NULL%1,        Laurence%Ring%NULL%1,        Ruth%Landau%NULL%1,        Stephanie%Purisch%NULL%1,        Alexander M.%Friedman%NULL%1,        Karin%Fuchs%NULL%2,        Desmond%Sutton%NULL%1,        Maria%Andrikopoulou%NULL%1,        Devon%Rupley%NULL%1,        Jean-Ju%Sheen%NULL%1,        Janice%Aubey%NULL%1,        Noelia%Zork%NULL%1,        Leslie%Moroz%NULL%1,        Mirella%Mourad%NULL%1,        Ronald%Wapner%NULL%1,        Lynn L.%Simpson%NULL%1,        Mary E.%D’Alton%NULL%1,        Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,        Karin%Fuchs%NULL%0,        Mary%D’Alton%NULL%1,        Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,        Jing%Wang%NULL%1,        Wenbin%Li%NULL%1,        Zhaoxian%Zhou%NULL%1,        Siying%Liu%NULL%1,        Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -865,7 +958,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -888,22 +981,22 @@
         <v>44013.0</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="I3" t="s">
         <v>35</v>
@@ -923,7 +1016,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -952,7 +1045,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -981,7 +1074,7 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1010,7 +1103,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1033,22 +1126,22 @@
         <v>44013.0</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="I8" t="s">
         <v>35</v>
@@ -1068,7 +1161,7 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
@@ -1097,7 +1190,7 @@
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -1126,7 +1219,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1155,7 +1248,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1184,7 +1277,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -1213,7 +1306,7 @@
         <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/27.xlsx
+++ b/Covid_19_Dataset_and_References/References/27.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="194">
   <si>
     <t>Doi</t>
   </si>
@@ -616,6 +616,84 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,        Jing%Wang%NULL%1,        Wenbin%Li%NULL%1,        Zhaoxian%Zhou%NULL%1,        Siying%Liu%NULL%1,        Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,         Yuan%Zhang%NULL%1,         Lei%Huang%NULL%0,         Bi-heng%Cheng%NULL%1,         Zhong-yuan%Xia%NULL%1,         Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%2,   Shiwen%Xia%xref no email%3,   Wenhao%Yuan%xref no email%2,   Kai%Yan%xref no email%2,   Feifan%Xiao%xref no email%2,   Jianbo%Shao%xref no email%2,   Wenhao%Zhou%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,         L.%Jun%NULL%1,         NULL%Nawsherwan%NULL%1,         R.%Siddique%NULL%1,         Y.%Li%NULL%1,         G.%Han%hg7913@hotmail.com%1,         M.%Xue%xuemengzhou@zzu.edu.cn%1,         G.%Nabi%ghulamnabiqau@gmail.com%1,         J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,         Ruihong%Sun%NULL%1,         Jianpu%Chen%NULL%1,         Yuanliang%Xie%NULL%1,         Shutong%Zhang%NULL%1,         Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,         Qin%Li%NULL%1,         Danni%Zheng%NULL%1,         Hai%Jiang%NULL%1,         Yuan%Wei%NULL%0,         Li%Zou%NULL%2,         Li%Zou%NULL%0,         Ling%Feng%NULL%3,         Ling%Feng%NULL%0,         Guoping%Xiong%NULL%3,         Guoping%Xiong%NULL%0,         Guoqiang%Sun%NULL%4,         Guoqiang%Sun%NULL%0,         Haibo%Wang%NULL%2,         Haibo%Wang%NULL%0,         Yangyu%Zhao%NULL%2,         Yangyu%Zhao%NULL%0,         Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,         Juanjuan%Guo%NULL%0,         Cuifang%Fan%NULL%1,         Juan%Juan%NULL%1,         Xuechen%Yu%NULL%0,         Jiafu%Li%NULL%0,         Ling%Feng%NULL%0,         Chunyan%Li%NULL%1,         Huijun%Chen%NULL%1,         Yuan%Qiao%NULL%1,         Di%Lei%NULL%1,         Chen%Wang%NULL%0,         Guoping%Xiong%NULL%0,         Fengyi%Xiao%NULL%1,         Wencong%He%NULL%1,         Qiumei%Pang%NULL%1,         Xiaoling%Hu%NULL%1,         Suqing%Wang%NULL%1,         Dunjin%Chen%NULL%1,         Yuanzhen%Zhang%NULL%0,         Liona C.%Poon%NULL%1,         Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dehan%Liu%xref no email%1,   Lin%Li%xref no email%1,   Xin%Wu%xref no email%1,   Dandan%Zheng%xref no email%1,   Jiazheng%Wang%xref no email%1,   Lian%Yang%xref no email%1,   Chuansheng%Zheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,         Lefei%Han%NULL%1,         Min%Peng%2658706528@qq.com%2,         Yuxia%Lv%NULL%1,         Yin%Ouyang%NULL%1,         Kui%Liu%NULL%0,         Linli%Yue%NULL%1,         Qiannan%Li%NULL%1,         Guoqiang%Sun%NULL%0,         Lin%Chen%NULL%1,         Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,          R.% Chen%null%1,          J.% Wang%null%1,          Y.% Gong%null%1,          Q.% Zhou%null%1,          H.-h.% Cheng%null%1,          Z.-y.% Xia%null%1,          X.% Chen%null%1,          Q.-t.% Meng%null%1,          D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,         Luigi%Frigerio%NULL%1,         Irene%Cetin%NULL%1,         Patrizia%Vergani%NULL%1,         Arsenio%Spinillo%NULL%1,         Federico%Prefumo%NULL%1,         Edda%Pellegrini%NULL%1,         Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,         Caitlin%Baptiste%NULL%1,         Cynthia%Gyamfi-Bannerman%NULL%1,         Russell%Miller%NULL%1,         Rebecca%Martinez%NULL%1,         Kyra%Bernstein%NULL%1,         Laurence%Ring%NULL%1,         Ruth%Landau%NULL%1,         Stephanie%Purisch%NULL%1,         Alexander M.%Friedman%NULL%1,         Karin%Fuchs%NULL%2,         Desmond%Sutton%NULL%1,         Maria%Andrikopoulou%NULL%1,         Devon%Rupley%NULL%1,         Jean-Ju%Sheen%NULL%1,         Janice%Aubey%NULL%1,         Noelia%Zork%NULL%1,         Leslie%Moroz%NULL%1,         Mirella%Mourad%NULL%1,         Ronald%Wapner%NULL%1,         Lynn L.%Simpson%NULL%1,         Mary E.%D’Alton%NULL%1,         Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,         Karin%Fuchs%NULL%0,         Mary%D’Alton%NULL%1,         Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,         Jing%Wang%NULL%1,         Wenbin%Li%NULL%1,         Zhaoxian%Zhou%NULL%1,         Siying%Liu%NULL%1,         Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,          Yuan%Zhang%NULL%1,          Lei%Huang%NULL%0,          Bi-heng%Cheng%NULL%1,          Zhong-yuan%Xia%NULL%1,          Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%2,    Shiwen%Xia%xref no email%3,    Wenhao%Yuan%xref no email%2,    Kai%Yan%xref no email%2,    Feifan%Xiao%xref no email%2,    Jianbo%Shao%xref no email%2,    Wenhao%Zhou%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,          L.%Jun%NULL%1,          NULL%Nawsherwan%NULL%1,          R.%Siddique%NULL%1,          Y.%Li%NULL%1,          G.%Han%hg7913@hotmail.com%1,          M.%Xue%xuemengzhou@zzu.edu.cn%1,          G.%Nabi%ghulamnabiqau@gmail.com%1,          J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,          Ruihong%Sun%NULL%1,          Jianpu%Chen%NULL%1,          Yuanliang%Xie%NULL%1,          Shutong%Zhang%NULL%1,          Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,          Qin%Li%NULL%1,          Danni%Zheng%NULL%1,          Hai%Jiang%NULL%1,          Yuan%Wei%NULL%0,          Li%Zou%NULL%2,          Li%Zou%NULL%0,          Ling%Feng%NULL%3,          Ling%Feng%NULL%0,          Guoping%Xiong%NULL%3,          Guoping%Xiong%NULL%0,          Guoqiang%Sun%NULL%4,          Guoqiang%Sun%NULL%0,          Haibo%Wang%NULL%2,          Haibo%Wang%NULL%0,          Yangyu%Zhao%NULL%2,          Yangyu%Zhao%NULL%0,          Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,          Juanjuan%Guo%NULL%0,          Cuifang%Fan%NULL%1,          Juan%Juan%NULL%1,          Xuechen%Yu%NULL%0,          Jiafu%Li%NULL%0,          Ling%Feng%NULL%0,          Chunyan%Li%NULL%1,          Huijun%Chen%NULL%1,          Yuan%Qiao%NULL%1,          Di%Lei%NULL%1,          Chen%Wang%NULL%0,          Guoping%Xiong%NULL%0,          Fengyi%Xiao%NULL%1,          Wencong%He%NULL%1,          Qiumei%Pang%NULL%1,          Xiaoling%Hu%NULL%1,          Suqing%Wang%NULL%1,          Dunjin%Chen%NULL%1,          Yuanzhen%Zhang%NULL%0,          Liona C.%Poon%NULL%1,          Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dehan%Liu%xref no email%1,    Lin%Li%xref no email%1,    Xin%Wu%xref no email%1,    Dandan%Zheng%xref no email%1,    Jiazheng%Wang%xref no email%1,    Lian%Yang%xref no email%1,    Chuansheng%Zheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,          Lefei%Han%NULL%1,          Min%Peng%2658706528@qq.com%2,          Yuxia%Lv%NULL%1,          Yin%Ouyang%NULL%1,          Kui%Liu%NULL%0,          Linli%Yue%NULL%1,          Qiannan%Li%NULL%1,          Guoqiang%Sun%NULL%0,          Lin%Chen%NULL%1,          Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,           R.% Chen%null%1,           J.% Wang%null%1,           Y.% Gong%null%1,           Q.% Zhou%null%1,           H.-h.% Cheng%null%1,           Z.-y.% Xia%null%1,           X.% Chen%null%1,           Q.-t.% Meng%null%1,           D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,          Luigi%Frigerio%NULL%1,          Irene%Cetin%NULL%1,          Patrizia%Vergani%NULL%1,          Arsenio%Spinillo%NULL%1,          Federico%Prefumo%NULL%1,          Edda%Pellegrini%NULL%1,          Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,          Caitlin%Baptiste%NULL%1,          Cynthia%Gyamfi-Bannerman%NULL%1,          Russell%Miller%NULL%1,          Rebecca%Martinez%NULL%1,          Kyra%Bernstein%NULL%1,          Laurence%Ring%NULL%1,          Ruth%Landau%NULL%1,          Stephanie%Purisch%NULL%1,          Alexander M.%Friedman%NULL%1,          Karin%Fuchs%NULL%2,          Desmond%Sutton%NULL%1,          Maria%Andrikopoulou%NULL%1,          Devon%Rupley%NULL%1,          Jean-Ju%Sheen%NULL%1,          Janice%Aubey%NULL%1,          Noelia%Zork%NULL%1,          Leslie%Moroz%NULL%1,          Mirella%Mourad%NULL%1,          Ronald%Wapner%NULL%1,          Lynn L.%Simpson%NULL%1,          Mary E.%D’Alton%NULL%1,          Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,          Karin%Fuchs%NULL%0,          Mary%D’Alton%NULL%1,          Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,          Jing%Wang%NULL%1,          Wenbin%Li%NULL%1,          Zhaoxian%Zhou%NULL%1,          Siying%Liu%NULL%1,          Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -958,7 +1036,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -987,7 +1065,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1016,7 +1094,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1045,7 +1123,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1074,7 +1152,7 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1103,7 +1181,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1132,7 +1210,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1161,7 +1239,7 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
@@ -1190,7 +1268,7 @@
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -1219,7 +1297,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1248,7 +1326,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1277,7 +1355,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -1306,7 +1384,7 @@
         <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/27.xlsx
+++ b/Covid_19_Dataset_and_References/References/27.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="221">
   <si>
     <t>Doi</t>
   </si>
@@ -694,6 +694,105 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,          Jing%Wang%NULL%1,          Wenbin%Li%NULL%1,          Zhaoxian%Zhou%NULL%1,          Siying%Liu%NULL%1,          Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+To assess the management and safety of epidural or general anesthesia for Cesarean delivery in parturients with coronavirus disease (COVID-19) and their newborns, and to evaluate the standardized procedures for protecting medical staff.
+Methods
+We retrospectively reviewed the cases of parturients diagnosed with severe acute respiratory syndrome coronavirus (SARS-CoV-2) infection disease (COVID-19).
+ Their epidemiologic history, chest computed tomography scans, laboratory measurements, and SARS-CoV-2 nucleic acid positivity were evaluated.
+ We also recorded the patients’ demographic and clinical characteristics, anesthesia and surgery-related data, maternal and neonatal complications, as well as the health status of the involved medical staff.
+Results
+The clinical characteristics of 17 pregnant women infected with SARS-CoV-2 were similar to those previously reported in non-pregnant adult patients.
+ All of the 17 patients underwent Cesarean delivery with anesthesia performed according to standardized anesthesia/surgery procedures.
+ Fourteen of the patients underwent continuous epidural anesthesia with 12 experiencing significant intraoperative hypotension.
+ Three patients received general anesthesia with tracheal intubation because emergency surgery was needed.
+ Three of the parturients are still recovering from their Cesarean delivery and are receiving in-hospital treatment for COVID-19. Three neonates were born prematurely.
+ There were no deaths or serious neonatal asphyxia events.
+ All neonatal SARS-CoV-2 nucleic acid tests were negative.
+ No medical staff were infected throughout the patient care period.
+Conclusions
+Both epidural and general anesthesia were safely used for Cesarean delivery in the parturients with COVID-19. Nevertheless, the incidence of hypotension during epidural anesthesia appeared excessive.
+ Proper patient transfer, medical staff access procedures, and effective biosafety precautions are important to protect medical staff from COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,           Yuan%Zhang%NULL%1,           Lei%Huang%NULL%0,           Bi-heng%Cheng%NULL%1,           Zhong-yuan%Xia%NULL%1,           Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%2,     Shiwen%Xia%xref no email%3,     Wenhao%Yuan%xref no email%2,     Kai%Yan%xref no email%2,     Feifan%Xiao%xref no email%2,     Jianbo%Shao%xref no email%2,     Wenhao%Zhou%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,           L.%Jun%NULL%1,           NULL%Nawsherwan%NULL%1,           R.%Siddique%NULL%1,           Y.%Li%NULL%1,           G.%Han%hg7913@hotmail.com%1,           M.%Xue%xuemengzhou@zzu.edu.cn%1,           G.%Nabi%ghulamnabiqau@gmail.com%1,           J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,           Ruihong%Sun%NULL%1,           Jianpu%Chen%NULL%1,           Yuanliang%Xie%NULL%1,           Shutong%Zhang%NULL%1,           Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,           Qin%Li%NULL%1,           Danni%Zheng%NULL%1,           Hai%Jiang%NULL%1,           Yuan%Wei%NULL%0,           Li%Zou%NULL%2,           Li%Zou%NULL%0,           Ling%Feng%NULL%3,           Ling%Feng%NULL%0,           Guoping%Xiong%NULL%3,           Guoping%Xiong%NULL%0,           Guoqiang%Sun%NULL%4,           Guoqiang%Sun%NULL%0,           Haibo%Wang%NULL%2,           Haibo%Wang%NULL%0,           Yangyu%Zhao%NULL%2,           Yangyu%Zhao%NULL%0,           Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,           Juanjuan%Guo%NULL%0,           Cuifang%Fan%NULL%1,           Juan%Juan%NULL%1,           Xuechen%Yu%NULL%0,           Jiafu%Li%NULL%0,           Ling%Feng%NULL%0,           Chunyan%Li%NULL%1,           Huijun%Chen%NULL%1,           Yuan%Qiao%NULL%1,           Di%Lei%NULL%1,           Chen%Wang%NULL%0,           Guoping%Xiong%NULL%0,           Fengyi%Xiao%NULL%1,           Wencong%He%NULL%1,           Qiumei%Pang%NULL%1,           Xiaoling%Hu%NULL%1,           Suqing%Wang%NULL%1,           Dunjin%Chen%NULL%1,           Yuanzhen%Zhang%NULL%0,           Liona C.%Poon%NULL%1,           Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dehan%Liu%xref no email%1,     Lin%Li%xref no email%1,     Xin%Wu%xref no email%1,     Dandan%Zheng%xref no email%1,     Jiazheng%Wang%xref no email%1,     Lian%Yang%xref no email%1,     Chuansheng%Zheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,           Lefei%Han%NULL%1,           Min%Peng%2658706528@qq.com%2,           Yuxia%Lv%NULL%1,           Yin%Ouyang%NULL%1,           Kui%Liu%NULL%0,           Linli%Yue%NULL%1,           Qiannan%Li%NULL%1,           Guoqiang%Sun%NULL%0,           Lin%Chen%NULL%1,           Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,            R.% Chen%null%1,            J.% Wang%null%1,            Y.% Gong%null%1,            Q.% Zhou%null%1,            H.-h.% Cheng%null%1,            Z.-y.% Xia%null%1,            X.% Chen%null%1,            Q.-t.% Meng%null%1,            D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,           Luigi%Frigerio%NULL%1,           Irene%Cetin%NULL%1,           Patrizia%Vergani%NULL%1,           Arsenio%Spinillo%NULL%1,           Federico%Prefumo%NULL%1,           Edda%Pellegrini%NULL%1,           Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,           Caitlin%Baptiste%NULL%1,           Cynthia%Gyamfi-Bannerman%NULL%1,           Russell%Miller%NULL%1,           Rebecca%Martinez%NULL%1,           Kyra%Bernstein%NULL%1,           Laurence%Ring%NULL%1,           Ruth%Landau%NULL%1,           Stephanie%Purisch%NULL%1,           Alexander M.%Friedman%NULL%1,           Karin%Fuchs%NULL%2,           Desmond%Sutton%NULL%1,           Maria%Andrikopoulou%NULL%1,           Devon%Rupley%NULL%1,           Jean-Ju%Sheen%NULL%1,           Janice%Aubey%NULL%1,           Noelia%Zork%NULL%1,           Leslie%Moroz%NULL%1,           Mirella%Mourad%NULL%1,           Ronald%Wapner%NULL%1,           Lynn L.%Simpson%NULL%1,           Mary E.%D’Alton%NULL%1,           Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,           Karin%Fuchs%NULL%0,           Mary%D’Alton%NULL%1,           Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,           Jing%Wang%NULL%1,           Wenbin%Li%NULL%1,           Zhaoxian%Zhou%NULL%1,           Siying%Liu%NULL%1,           Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,            Yuan%Zhang%NULL%1,            Lei%Huang%NULL%0,            Bi-heng%Cheng%NULL%1,            Zhong-yuan%Xia%NULL%1,            Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%2,      Shiwen%Xia%xref no email%3,      Wenhao%Yuan%xref no email%2,      Kai%Yan%xref no email%2,      Feifan%Xiao%xref no email%2,      Jianbo%Shao%xref no email%2,      Wenhao%Zhou%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,            L.%Jun%NULL%1,            NULL%Nawsherwan%NULL%1,            R.%Siddique%NULL%1,            Y.%Li%NULL%1,            G.%Han%hg7913@hotmail.com%1,            M.%Xue%xuemengzhou@zzu.edu.cn%1,            G.%Nabi%ghulamnabiqau@gmail.com%1,            J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,            Ruihong%Sun%NULL%1,            Jianpu%Chen%NULL%1,            Yuanliang%Xie%NULL%1,            Shutong%Zhang%NULL%1,            Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,            Qin%Li%NULL%1,            Danni%Zheng%NULL%1,            Hai%Jiang%NULL%1,            Yuan%Wei%NULL%0,            Li%Zou%NULL%2,            Li%Zou%NULL%0,            Ling%Feng%NULL%3,            Ling%Feng%NULL%0,            Guoping%Xiong%NULL%3,            Guoping%Xiong%NULL%0,            Guoqiang%Sun%NULL%4,            Guoqiang%Sun%NULL%0,            Haibo%Wang%NULL%2,            Haibo%Wang%NULL%0,            Yangyu%Zhao%NULL%2,            Yangyu%Zhao%NULL%0,            Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,            Juanjuan%Guo%NULL%0,            Cuifang%Fan%NULL%1,            Juan%Juan%NULL%1,            Xuechen%Yu%NULL%0,            Jiafu%Li%NULL%0,            Ling%Feng%NULL%0,            Chunyan%Li%NULL%1,            Huijun%Chen%NULL%1,            Yuan%Qiao%NULL%1,            Di%Lei%NULL%1,            Chen%Wang%NULL%0,            Guoping%Xiong%NULL%0,            Fengyi%Xiao%NULL%1,            Wencong%He%NULL%1,            Qiumei%Pang%NULL%1,            Xiaoling%Hu%NULL%1,            Suqing%Wang%NULL%1,            Dunjin%Chen%NULL%1,            Yuanzhen%Zhang%NULL%0,            Liona C.%Poon%NULL%1,            Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dehan%Liu%xref no email%1,      Lin%Li%xref no email%1,      Xin%Wu%xref no email%1,      Dandan%Zheng%xref no email%1,      Jiazheng%Wang%xref no email%1,      Lian%Yang%xref no email%1,      Chuansheng%Zheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,            Lefei%Han%NULL%1,            Min%Peng%2658706528@qq.com%2,            Yuxia%Lv%NULL%1,            Yin%Ouyang%NULL%1,            Kui%Liu%NULL%0,            Linli%Yue%NULL%1,            Qiannan%Li%NULL%1,            Guoqiang%Sun%NULL%0,            Lin%Chen%NULL%1,            Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,             R.% Chen%null%1,             J.% Wang%null%1,             Y.% Gong%null%1,             Q.% Zhou%null%1,             H.-h.% Cheng%null%1,             Z.-y.% Xia%null%1,             X.% Chen%null%1,             Q.-t.% Meng%null%1,             D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,            Luigi%Frigerio%NULL%1,            Irene%Cetin%NULL%1,            Patrizia%Vergani%NULL%1,            Arsenio%Spinillo%NULL%1,            Federico%Prefumo%NULL%1,            Edda%Pellegrini%NULL%1,            Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,            Caitlin%Baptiste%NULL%1,            Cynthia%Gyamfi-Bannerman%NULL%1,            Russell%Miller%NULL%1,            Rebecca%Martinez%NULL%1,            Kyra%Bernstein%NULL%1,            Laurence%Ring%NULL%1,            Ruth%Landau%NULL%1,            Stephanie%Purisch%NULL%1,            Alexander M.%Friedman%NULL%1,            Karin%Fuchs%NULL%2,            Desmond%Sutton%NULL%1,            Maria%Andrikopoulou%NULL%1,            Devon%Rupley%NULL%1,            Jean-Ju%Sheen%NULL%1,            Janice%Aubey%NULL%1,            Noelia%Zork%NULL%1,            Leslie%Moroz%NULL%1,            Mirella%Mourad%NULL%1,            Ronald%Wapner%NULL%1,            Lynn L.%Simpson%NULL%1,            Mary E.%D’Alton%NULL%1,            Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,            Karin%Fuchs%NULL%0,            Mary%D’Alton%NULL%1,            Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,            Jing%Wang%NULL%1,            Wenbin%Li%NULL%1,            Zhaoxian%Zhou%NULL%1,            Siying%Liu%NULL%1,            Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1033,10 +1132,10 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -1065,7 +1164,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1094,7 +1193,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1123,7 +1222,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1152,7 +1251,7 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1181,7 +1280,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1210,7 +1309,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1239,7 +1338,7 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
@@ -1268,7 +1367,7 @@
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -1297,7 +1396,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1326,7 +1425,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1355,7 +1454,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -1384,7 +1483,7 @@
         <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/27.xlsx
+++ b/Covid_19_Dataset_and_References/References/27.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="235">
   <si>
     <t>Doi</t>
   </si>
@@ -793,6 +793,48 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,            Jing%Wang%NULL%1,            Wenbin%Li%NULL%1,            Zhaoxian%Zhou%NULL%1,            Siying%Liu%NULL%1,            Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,             Yuan%Zhang%NULL%1,             Lei%Huang%NULL%0,             Bi-heng%Cheng%NULL%1,             Zhong-yuan%Xia%NULL%1,             Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%2,       Shiwen%Xia%xref no email%3,       Wenhao%Yuan%xref no email%2,       Kai%Yan%xref no email%2,       Feifan%Xiao%xref no email%2,       Jianbo%Shao%xref no email%2,       Wenhao%Zhou%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,             L.%Jun%NULL%1,             NULL%Nawsherwan%NULL%1,             R.%Siddique%NULL%1,             Y.%Li%NULL%1,             G.%Han%hg7913@hotmail.com%1,             M.%Xue%xuemengzhou@zzu.edu.cn%1,             G.%Nabi%ghulamnabiqau@gmail.com%1,             J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,             Ruihong%Sun%NULL%1,             Jianpu%Chen%NULL%1,             Yuanliang%Xie%NULL%1,             Shutong%Zhang%NULL%1,             Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,             Qin%Li%NULL%1,             Danni%Zheng%NULL%1,             Hai%Jiang%NULL%1,             Yuan%Wei%NULL%0,             Li%Zou%NULL%2,             Li%Zou%NULL%0,             Ling%Feng%NULL%3,             Ling%Feng%NULL%0,             Guoping%Xiong%NULL%3,             Guoping%Xiong%NULL%0,             Guoqiang%Sun%NULL%4,             Guoqiang%Sun%NULL%0,             Haibo%Wang%NULL%2,             Haibo%Wang%NULL%0,             Yangyu%Zhao%NULL%2,             Yangyu%Zhao%NULL%0,             Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,             Juanjuan%Guo%NULL%0,             Cuifang%Fan%NULL%1,             Juan%Juan%NULL%1,             Xuechen%Yu%NULL%0,             Jiafu%Li%NULL%0,             Ling%Feng%NULL%0,             Chunyan%Li%NULL%1,             Huijun%Chen%NULL%1,             Yuan%Qiao%NULL%1,             Di%Lei%NULL%1,             Chen%Wang%NULL%0,             Guoping%Xiong%NULL%0,             Fengyi%Xiao%NULL%1,             Wencong%He%NULL%1,             Qiumei%Pang%NULL%1,             Xiaoling%Hu%NULL%1,             Suqing%Wang%NULL%1,             Dunjin%Chen%NULL%1,             Yuanzhen%Zhang%NULL%0,             Liona C.%Poon%NULL%1,             Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dehan%Liu%xref no email%1,       Lin%Li%xref no email%1,       Xin%Wu%xref no email%1,       Dandan%Zheng%xref no email%1,       Jiazheng%Wang%xref no email%1,       Lian%Yang%xref no email%1,       Chuansheng%Zheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,             Lefei%Han%NULL%1,             Min%Peng%2658706528@qq.com%2,             Yuxia%Lv%NULL%1,             Yin%Ouyang%NULL%1,             Kui%Liu%NULL%0,             Linli%Yue%NULL%1,             Qiannan%Li%NULL%1,             Guoqiang%Sun%NULL%0,             Lin%Chen%NULL%1,             Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,              R.% Chen%null%1,              J.% Wang%null%1,              Y.% Gong%null%1,              Q.% Zhou%null%1,              H.-h.% Cheng%null%1,              Z.-y.% Xia%null%1,              X.% Chen%null%1,              Q.-t.% Meng%null%1,              D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,             Luigi%Frigerio%NULL%1,             Irene%Cetin%NULL%1,             Patrizia%Vergani%NULL%1,             Arsenio%Spinillo%NULL%1,             Federico%Prefumo%NULL%1,             Edda%Pellegrini%NULL%1,             Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,             Caitlin%Baptiste%NULL%1,             Cynthia%Gyamfi-Bannerman%NULL%1,             Russell%Miller%NULL%1,             Rebecca%Martinez%NULL%1,             Kyra%Bernstein%NULL%1,             Laurence%Ring%NULL%1,             Ruth%Landau%NULL%1,             Stephanie%Purisch%NULL%1,             Alexander M.%Friedman%NULL%1,             Karin%Fuchs%NULL%2,             Desmond%Sutton%NULL%1,             Maria%Andrikopoulou%NULL%1,             Devon%Rupley%NULL%1,             Jean-Ju%Sheen%NULL%1,             Janice%Aubey%NULL%1,             Noelia%Zork%NULL%1,             Leslie%Moroz%NULL%1,             Mirella%Mourad%NULL%1,             Ronald%Wapner%NULL%1,             Lynn L.%Simpson%NULL%1,             Mary E.%D’Alton%NULL%1,             Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,             Karin%Fuchs%NULL%0,             Mary%D’Alton%NULL%1,             Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,             Jing%Wang%NULL%1,             Wenbin%Li%NULL%1,             Zhaoxian%Zhou%NULL%1,             Siying%Liu%NULL%1,             Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1177,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -1164,7 +1206,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1193,7 +1235,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1222,7 +1264,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1251,7 +1293,7 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1280,7 +1322,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1309,7 +1351,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1338,7 +1380,7 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
@@ -1367,13 +1409,13 @@
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="H10" t="s">
         <v>38</v>
@@ -1396,7 +1438,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1425,7 +1467,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1454,7 +1496,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -1483,7 +1525,7 @@
         <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/27.xlsx
+++ b/Covid_19_Dataset_and_References/References/27.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="248">
   <si>
     <t>Doi</t>
   </si>
@@ -835,6 +835,45 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,             Jing%Wang%NULL%1,             Wenbin%Li%NULL%1,             Zhaoxian%Zhou%NULL%1,             Siying%Liu%NULL%1,             Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,              Yuan%Zhang%NULL%1,              Lei%Huang%NULL%0,              Bi-heng%Cheng%NULL%1,              Zhong-yuan%Xia%NULL%1,              Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%2,        Shiwen%Xia%xref no email%3,        Wenhao%Yuan%xref no email%2,        Kai%Yan%xref no email%2,        Feifan%Xiao%xref no email%2,        Jianbo%Shao%xref no email%2,        Wenhao%Zhou%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,              L.%Jun%NULL%1,              NULL%Nawsherwan%NULL%1,              R.%Siddique%NULL%1,              Y.%Li%NULL%1,              G.%Han%hg7913@hotmail.com%1,              M.%Xue%xuemengzhou@zzu.edu.cn%1,              G.%Nabi%ghulamnabiqau@gmail.com%1,              J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,              Ruihong%Sun%NULL%1,              Jianpu%Chen%NULL%1,              Yuanliang%Xie%NULL%1,              Shutong%Zhang%NULL%1,              Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,              Qin%Li%NULL%1,              Danni%Zheng%NULL%1,              Hai%Jiang%NULL%1,              Yuan%Wei%NULL%0,              Li%Zou%NULL%2,              Li%Zou%NULL%0,              Ling%Feng%NULL%3,              Ling%Feng%NULL%0,              Guoping%Xiong%NULL%3,              Guoping%Xiong%NULL%0,              Guoqiang%Sun%NULL%4,              Guoqiang%Sun%NULL%0,              Haibo%Wang%NULL%2,              Haibo%Wang%NULL%0,              Yangyu%Zhao%NULL%2,              Yangyu%Zhao%NULL%0,              Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,              Juanjuan%Guo%NULL%0,              Cuifang%Fan%NULL%1,              Juan%Juan%NULL%1,              Xuechen%Yu%NULL%0,              Jiafu%Li%NULL%0,              Ling%Feng%NULL%0,              Chunyan%Li%NULL%1,              Huijun%Chen%NULL%1,              Yuan%Qiao%NULL%1,              Di%Lei%NULL%1,              Chen%Wang%NULL%0,              Guoping%Xiong%NULL%0,              Fengyi%Xiao%NULL%1,              Wencong%He%NULL%1,              Qiumei%Pang%NULL%1,              Xiaoling%Hu%NULL%1,              Suqing%Wang%NULL%1,              Dunjin%Chen%NULL%1,              Yuanzhen%Zhang%NULL%0,              Liona C.%Poon%NULL%1,              Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dehan%Liu%xref no email%1,        Lin%Li%xref no email%1,        Xin%Wu%xref no email%1,        Dandan%Zheng%xref no email%1,        Jiazheng%Wang%xref no email%1,        Lian%Yang%xref no email%1,        Chuansheng%Zheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,              Lefei%Han%NULL%1,              Min%Peng%2658706528@qq.com%2,              Yuxia%Lv%NULL%1,              Yin%Ouyang%NULL%1,              Kui%Liu%NULL%0,              Linli%Yue%NULL%1,              Qiannan%Li%NULL%1,              Guoqiang%Sun%NULL%0,              Lin%Chen%NULL%1,              Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,               R.% Chen%null%1,               J.% Wang%null%1,               Y.% Gong%null%1,               Q.% Zhou%null%1,               H.-h.% Cheng%null%1,               Z.-y.% Xia%null%1,               X.% Chen%null%1,               Q.-t.% Meng%null%1,               D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,              Luigi%Frigerio%NULL%1,              Irene%Cetin%NULL%1,              Patrizia%Vergani%NULL%1,              Arsenio%Spinillo%NULL%1,              Federico%Prefumo%NULL%1,              Edda%Pellegrini%NULL%1,              Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,              Caitlin%Baptiste%NULL%1,              Cynthia%Gyamfi-Bannerman%NULL%1,              Russell%Miller%NULL%1,              Rebecca%Martinez%NULL%1,              Kyra%Bernstein%NULL%1,              Laurence%Ring%NULL%1,              Ruth%Landau%NULL%1,              Stephanie%Purisch%NULL%1,              Alexander M.%Friedman%NULL%1,              Karin%Fuchs%NULL%2,              Desmond%Sutton%NULL%1,              Maria%Andrikopoulou%NULL%1,              Devon%Rupley%NULL%1,              Jean-Ju%Sheen%NULL%1,              Janice%Aubey%NULL%1,              Noelia%Zork%NULL%1,              Leslie%Moroz%NULL%1,              Mirella%Mourad%NULL%1,              Ronald%Wapner%NULL%1,              Lynn L.%Simpson%NULL%1,              Mary E.%D’Alton%NULL%1,              Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,              Karin%Fuchs%NULL%0,              Mary%D’Alton%NULL%1,              Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,              Jing%Wang%NULL%1,              Wenbin%Li%NULL%1,              Zhaoxian%Zhou%NULL%1,              Siying%Liu%NULL%1,              Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1216,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -1206,7 +1245,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1235,7 +1274,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1264,7 +1303,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1293,7 +1332,7 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1322,7 +1361,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1351,7 +1390,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1380,7 +1419,7 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
@@ -1409,7 +1448,7 @@
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1438,7 +1477,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1467,7 +1506,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1496,7 +1535,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -1525,7 +1564,7 @@
         <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/27.xlsx
+++ b/Covid_19_Dataset_and_References/References/27.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="274">
   <si>
     <t>Doi</t>
   </si>
@@ -874,6 +874,84 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,              Jing%Wang%NULL%1,              Wenbin%Li%NULL%1,              Zhaoxian%Zhou%NULL%1,              Siying%Liu%NULL%1,              Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,               Yuan%Zhang%NULL%1,               Lei%Huang%NULL%0,               Bi-heng%Cheng%NULL%1,               Zhong-yuan%Xia%NULL%1,               Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%2,         Shiwen%Xia%xref no email%3,         Wenhao%Yuan%xref no email%2,         Kai%Yan%xref no email%2,         Feifan%Xiao%xref no email%2,         Jianbo%Shao%xref no email%2,         Wenhao%Zhou%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,               L.%Jun%NULL%1,               NULL%Nawsherwan%NULL%1,               R.%Siddique%NULL%1,               Y.%Li%NULL%1,               G.%Han%hg7913@hotmail.com%1,               M.%Xue%xuemengzhou@zzu.edu.cn%1,               G.%Nabi%ghulamnabiqau@gmail.com%1,               J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,               Ruihong%Sun%NULL%1,               Jianpu%Chen%NULL%1,               Yuanliang%Xie%NULL%1,               Shutong%Zhang%NULL%1,               Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,               Qin%Li%NULL%1,               Danni%Zheng%NULL%1,               Hai%Jiang%NULL%1,               Yuan%Wei%NULL%0,               Li%Zou%NULL%2,               Li%Zou%NULL%0,               Ling%Feng%NULL%3,               Ling%Feng%NULL%0,               Guoping%Xiong%NULL%3,               Guoping%Xiong%NULL%0,               Guoqiang%Sun%NULL%4,               Guoqiang%Sun%NULL%0,               Haibo%Wang%NULL%2,               Haibo%Wang%NULL%0,               Yangyu%Zhao%NULL%2,               Yangyu%Zhao%NULL%0,               Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,               Juanjuan%Guo%NULL%0,               Cuifang%Fan%NULL%1,               Juan%Juan%NULL%1,               Xuechen%Yu%NULL%0,               Jiafu%Li%NULL%0,               Ling%Feng%NULL%0,               Chunyan%Li%NULL%1,               Huijun%Chen%NULL%1,               Yuan%Qiao%NULL%1,               Di%Lei%NULL%1,               Chen%Wang%NULL%0,               Guoping%Xiong%NULL%0,               Fengyi%Xiao%NULL%1,               Wencong%He%NULL%1,               Qiumei%Pang%NULL%1,               Xiaoling%Hu%NULL%1,               Suqing%Wang%NULL%1,               Dunjin%Chen%NULL%1,               Yuanzhen%Zhang%NULL%0,               Liona C.%Poon%NULL%1,               Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dehan%Liu%xref no email%1,         Lin%Li%xref no email%1,         Xin%Wu%xref no email%1,         Dandan%Zheng%xref no email%1,         Jiazheng%Wang%xref no email%1,         Lian%Yang%xref no email%1,         Chuansheng%Zheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,               Lefei%Han%NULL%1,               Min%Peng%2658706528@qq.com%2,               Yuxia%Lv%NULL%1,               Yin%Ouyang%NULL%1,               Kui%Liu%NULL%0,               Linli%Yue%NULL%1,               Qiannan%Li%NULL%1,               Guoqiang%Sun%NULL%0,               Lin%Chen%NULL%1,               Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,                R.% Chen%null%1,                J.% Wang%null%1,                Y.% Gong%null%1,                Q.% Zhou%null%1,                H.-h.% Cheng%null%1,                Z.-y.% Xia%null%1,                X.% Chen%null%1,                Q.-t.% Meng%null%1,                D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,               Luigi%Frigerio%NULL%1,               Irene%Cetin%NULL%1,               Patrizia%Vergani%NULL%1,               Arsenio%Spinillo%NULL%1,               Federico%Prefumo%NULL%1,               Edda%Pellegrini%NULL%1,               Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,               Caitlin%Baptiste%NULL%1,               Cynthia%Gyamfi-Bannerman%NULL%1,               Russell%Miller%NULL%1,               Rebecca%Martinez%NULL%1,               Kyra%Bernstein%NULL%1,               Laurence%Ring%NULL%1,               Ruth%Landau%NULL%1,               Stephanie%Purisch%NULL%1,               Alexander M.%Friedman%NULL%1,               Karin%Fuchs%NULL%2,               Desmond%Sutton%NULL%1,               Maria%Andrikopoulou%NULL%1,               Devon%Rupley%NULL%1,               Jean-Ju%Sheen%NULL%1,               Janice%Aubey%NULL%1,               Noelia%Zork%NULL%1,               Leslie%Moroz%NULL%1,               Mirella%Mourad%NULL%1,               Ronald%Wapner%NULL%1,               Lynn L.%Simpson%NULL%1,               Mary E.%D’Alton%NULL%1,               Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,               Karin%Fuchs%NULL%0,               Mary%D’Alton%NULL%1,               Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,               Jing%Wang%NULL%1,               Wenbin%Li%NULL%1,               Zhaoxian%Zhou%NULL%1,               Siying%Liu%NULL%1,               Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,                Yuan%Zhang%NULL%1,                Lei%Huang%NULL%0,                Bi-heng%Cheng%NULL%1,                Zhong-yuan%Xia%NULL%1,                Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%2,          Shiwen%Xia%xref no email%3,          Wenhao%Yuan%xref no email%2,          Kai%Yan%xref no email%2,          Feifan%Xiao%xref no email%2,          Jianbo%Shao%xref no email%2,          Wenhao%Zhou%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,                L.%Jun%NULL%1,                NULL%Nawsherwan%NULL%1,                R.%Siddique%NULL%1,                Y.%Li%NULL%1,                G.%Han%hg7913@hotmail.com%1,                M.%Xue%xuemengzhou@zzu.edu.cn%1,                G.%Nabi%ghulamnabiqau@gmail.com%1,                J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,                Ruihong%Sun%NULL%1,                Jianpu%Chen%NULL%1,                Yuanliang%Xie%NULL%1,                Shutong%Zhang%NULL%1,                Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,                Qin%Li%NULL%1,                Danni%Zheng%NULL%1,                Hai%Jiang%NULL%1,                Yuan%Wei%NULL%0,                Li%Zou%NULL%2,                Li%Zou%NULL%0,                Ling%Feng%NULL%3,                Ling%Feng%NULL%0,                Guoping%Xiong%NULL%3,                Guoping%Xiong%NULL%0,                Guoqiang%Sun%NULL%4,                Guoqiang%Sun%NULL%0,                Haibo%Wang%NULL%2,                Haibo%Wang%NULL%0,                Yangyu%Zhao%NULL%2,                Yangyu%Zhao%NULL%0,                Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,                Juanjuan%Guo%NULL%0,                Cuifang%Fan%NULL%1,                Juan%Juan%NULL%1,                Xuechen%Yu%NULL%0,                Jiafu%Li%NULL%0,                Ling%Feng%NULL%0,                Chunyan%Li%NULL%1,                Huijun%Chen%NULL%1,                Yuan%Qiao%NULL%1,                Di%Lei%NULL%1,                Chen%Wang%NULL%0,                Guoping%Xiong%NULL%0,                Fengyi%Xiao%NULL%1,                Wencong%He%NULL%1,                Qiumei%Pang%NULL%1,                Xiaoling%Hu%NULL%1,                Suqing%Wang%NULL%1,                Dunjin%Chen%NULL%1,                Yuanzhen%Zhang%NULL%0,                Liona C.%Poon%NULL%1,                Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dehan%Liu%xref no email%1,          Lin%Li%xref no email%1,          Xin%Wu%xref no email%1,          Dandan%Zheng%xref no email%1,          Jiazheng%Wang%xref no email%1,          Lian%Yang%xref no email%1,          Chuansheng%Zheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,                Lefei%Han%NULL%1,                Min%Peng%2658706528@qq.com%2,                Yuxia%Lv%NULL%1,                Yin%Ouyang%NULL%1,                Kui%Liu%NULL%0,                Linli%Yue%NULL%1,                Qiannan%Li%NULL%1,                Guoqiang%Sun%NULL%0,                Lin%Chen%NULL%1,                Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,                 R.% Chen%null%1,                 J.% Wang%null%1,                 Y.% Gong%null%1,                 Q.% Zhou%null%1,                 H.-h.% Cheng%null%1,                 Z.-y.% Xia%null%1,                 X.% Chen%null%1,                 Q.-t.% Meng%null%1,                 D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,                Luigi%Frigerio%NULL%1,                Irene%Cetin%NULL%1,                Patrizia%Vergani%NULL%1,                Arsenio%Spinillo%NULL%1,                Federico%Prefumo%NULL%1,                Edda%Pellegrini%NULL%1,                Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,                Caitlin%Baptiste%NULL%1,                Cynthia%Gyamfi-Bannerman%NULL%1,                Russell%Miller%NULL%1,                Rebecca%Martinez%NULL%1,                Kyra%Bernstein%NULL%1,                Laurence%Ring%NULL%1,                Ruth%Landau%NULL%1,                Stephanie%Purisch%NULL%1,                Alexander M.%Friedman%NULL%1,                Karin%Fuchs%NULL%2,                Desmond%Sutton%NULL%1,                Maria%Andrikopoulou%NULL%1,                Devon%Rupley%NULL%1,                Jean-Ju%Sheen%NULL%1,                Janice%Aubey%NULL%1,                Noelia%Zork%NULL%1,                Leslie%Moroz%NULL%1,                Mirella%Mourad%NULL%1,                Ronald%Wapner%NULL%1,                Lynn L.%Simpson%NULL%1,                Mary E.%D’Alton%NULL%1,                Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,                Karin%Fuchs%NULL%0,                Mary%D’Alton%NULL%1,                Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                Jing%Wang%NULL%1,                Wenbin%Li%NULL%1,                Zhaoxian%Zhou%NULL%1,                Siying%Liu%NULL%1,                Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1294,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -1245,7 +1323,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1274,7 +1352,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1303,7 +1381,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1332,7 +1410,7 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1361,7 +1439,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1390,7 +1468,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1419,7 +1497,7 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
@@ -1448,7 +1526,7 @@
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1477,7 +1555,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1506,7 +1584,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1535,7 +1613,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -1564,7 +1642,7 @@
         <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/27.xlsx
+++ b/Covid_19_Dataset_and_References/References/27.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="287">
   <si>
     <t>Doi</t>
   </si>
@@ -952,6 +952,45 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,                Jing%Wang%NULL%1,                Wenbin%Li%NULL%1,                Zhaoxian%Zhou%NULL%1,                Siying%Liu%NULL%1,                Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,                 Yuan%Zhang%NULL%1,                 Lei%Huang%NULL%0,                 Bi-heng%Cheng%NULL%1,                 Zhong-yuan%Xia%NULL%1,                 Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%2,           Shiwen%Xia%xref no email%3,           Wenhao%Yuan%xref no email%2,           Kai%Yan%xref no email%2,           Feifan%Xiao%xref no email%2,           Jianbo%Shao%xref no email%2,           Wenhao%Zhou%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,                 L.%Jun%NULL%1,                 NULL%Nawsherwan%NULL%1,                 R.%Siddique%NULL%1,                 Y.%Li%NULL%1,                 G.%Han%hg7913@hotmail.com%1,                 M.%Xue%xuemengzhou@zzu.edu.cn%1,                 G.%Nabi%ghulamnabiqau@gmail.com%1,                 J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,                 Ruihong%Sun%NULL%1,                 Jianpu%Chen%NULL%1,                 Yuanliang%Xie%NULL%1,                 Shutong%Zhang%NULL%1,                 Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,                 Qin%Li%NULL%1,                 Danni%Zheng%NULL%1,                 Hai%Jiang%NULL%1,                 Yuan%Wei%NULL%0,                 Li%Zou%NULL%2,                 Li%Zou%NULL%0,                 Ling%Feng%NULL%3,                 Ling%Feng%NULL%0,                 Guoping%Xiong%NULL%3,                 Guoping%Xiong%NULL%0,                 Guoqiang%Sun%NULL%4,                 Guoqiang%Sun%NULL%0,                 Haibo%Wang%NULL%2,                 Haibo%Wang%NULL%0,                 Yangyu%Zhao%NULL%2,                 Yangyu%Zhao%NULL%0,                 Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,                 Juanjuan%Guo%NULL%0,                 Cuifang%Fan%NULL%1,                 Juan%Juan%NULL%1,                 Xuechen%Yu%NULL%0,                 Jiafu%Li%NULL%0,                 Ling%Feng%NULL%0,                 Chunyan%Li%NULL%1,                 Huijun%Chen%NULL%1,                 Yuan%Qiao%NULL%1,                 Di%Lei%NULL%1,                 Chen%Wang%NULL%0,                 Guoping%Xiong%NULL%0,                 Fengyi%Xiao%NULL%1,                 Wencong%He%NULL%1,                 Qiumei%Pang%NULL%1,                 Xiaoling%Hu%NULL%1,                 Suqing%Wang%NULL%1,                 Dunjin%Chen%NULL%1,                 Yuanzhen%Zhang%NULL%0,                 Liona C.%Poon%NULL%1,                 Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dehan%Liu%xref no email%1,           Lin%Li%xref no email%1,           Xin%Wu%xref no email%1,           Dandan%Zheng%xref no email%1,           Jiazheng%Wang%xref no email%1,           Lian%Yang%xref no email%1,           Chuansheng%Zheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,                 Lefei%Han%NULL%1,                 Min%Peng%2658706528@qq.com%2,                 Yuxia%Lv%NULL%1,                 Yin%Ouyang%NULL%1,                 Kui%Liu%NULL%0,                 Linli%Yue%NULL%1,                 Qiannan%Li%NULL%1,                 Guoqiang%Sun%NULL%0,                 Lin%Chen%NULL%1,                 Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,                  R.% Chen%null%1,                  J.% Wang%null%1,                  Y.% Gong%null%1,                  Q.% Zhou%null%1,                  H.-h.% Cheng%null%1,                  Z.-y.% Xia%null%1,                  X.% Chen%null%1,                  Q.-t.% Meng%null%1,                  D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,                 Luigi%Frigerio%NULL%1,                 Irene%Cetin%NULL%1,                 Patrizia%Vergani%NULL%1,                 Arsenio%Spinillo%NULL%1,                 Federico%Prefumo%NULL%1,                 Edda%Pellegrini%NULL%1,                 Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,                 Caitlin%Baptiste%NULL%1,                 Cynthia%Gyamfi-Bannerman%NULL%1,                 Russell%Miller%NULL%1,                 Rebecca%Martinez%NULL%1,                 Kyra%Bernstein%NULL%1,                 Laurence%Ring%NULL%1,                 Ruth%Landau%NULL%1,                 Stephanie%Purisch%NULL%1,                 Alexander M.%Friedman%NULL%1,                 Karin%Fuchs%NULL%2,                 Desmond%Sutton%NULL%1,                 Maria%Andrikopoulou%NULL%1,                 Devon%Rupley%NULL%1,                 Jean-Ju%Sheen%NULL%1,                 Janice%Aubey%NULL%1,                 Noelia%Zork%NULL%1,                 Leslie%Moroz%NULL%1,                 Mirella%Mourad%NULL%1,                 Ronald%Wapner%NULL%1,                 Lynn L.%Simpson%NULL%1,                 Mary E.%D’Alton%NULL%1,                 Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,                 Karin%Fuchs%NULL%0,                 Mary%D’Alton%NULL%1,                 Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                 Jing%Wang%NULL%1,                 Wenbin%Li%NULL%1,                 Zhaoxian%Zhou%NULL%1,                 Siying%Liu%NULL%1,                 Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1333,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -1323,7 +1362,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1352,7 +1391,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1381,7 +1420,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1410,7 +1449,7 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1439,7 +1478,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1468,7 +1507,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1497,7 +1536,7 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
@@ -1526,7 +1565,7 @@
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1555,7 +1594,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1584,7 +1623,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1613,7 +1652,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -1642,7 +1681,7 @@
         <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/27.xlsx
+++ b/Covid_19_Dataset_and_References/References/27.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="305">
   <si>
     <t>Doi</t>
   </si>
@@ -991,6 +991,60 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,                 Jing%Wang%NULL%1,                 Wenbin%Li%NULL%1,                 Zhaoxian%Zhou%NULL%1,                 Siying%Liu%NULL%1,                 Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,                  Yuan%Zhang%NULL%1,                  Lei%Huang%NULL%0,                  Bi-heng%Cheng%NULL%1,                  Zhong-yuan%Xia%NULL%1,                  Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%2,            Shiwen%Xia%xref no email%3,            Wenhao%Yuan%xref no email%2,            Kai%Yan%xref no email%2,            Feifan%Xiao%xref no email%2,            Jianbo%Shao%xref no email%2,            Wenhao%Zhou%xref no email%3]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,                  L.%Jun%NULL%1,                  NULL%Nawsherwan%NULL%1,                  R.%Siddique%NULL%1,                  Y.%Li%NULL%1,                  G.%Han%hg7913@hotmail.com%1,                  M.%Xue%xuemengzhou@zzu.edu.cn%1,                  G.%Nabi%ghulamnabiqau@gmail.com%1,                  J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,                  Ruihong%Sun%NULL%1,                  Jianpu%Chen%NULL%1,                  Yuanliang%Xie%NULL%1,                  Shutong%Zhang%NULL%1,                  Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,                  Qin%Li%NULL%1,                  Danni%Zheng%NULL%1,                  Hai%Jiang%NULL%1,                  Yuan%Wei%NULL%0,                  Li%Zou%NULL%2,                  Li%Zou%NULL%0,                  Ling%Feng%NULL%3,                  Ling%Feng%NULL%0,                  Guoping%Xiong%NULL%3,                  Guoping%Xiong%NULL%0,                  Guoqiang%Sun%NULL%4,                  Guoqiang%Sun%NULL%0,                  Haibo%Wang%NULL%2,                  Haibo%Wang%NULL%0,                  Yangyu%Zhao%NULL%2,                  Yangyu%Zhao%NULL%0,                  Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,                  Juanjuan%Guo%NULL%0,                  Cuifang%Fan%NULL%1,                  Juan%Juan%NULL%1,                  Xuechen%Yu%NULL%0,                  Jiafu%Li%NULL%0,                  Ling%Feng%NULL%0,                  Chunyan%Li%NULL%1,                  Huijun%Chen%NULL%1,                  Yuan%Qiao%NULL%1,                  Di%Lei%NULL%1,                  Chen%Wang%NULL%0,                  Guoping%Xiong%NULL%0,                  Fengyi%Xiao%NULL%1,                  Wencong%He%NULL%1,                  Qiumei%Pang%NULL%1,                  Xiaoling%Hu%NULL%1,                  Suqing%Wang%NULL%1,                  Dunjin%Chen%NULL%1,                  Yuanzhen%Zhang%NULL%0,                  Liona C.%Poon%NULL%1,                  Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dehan%Liu%xref no email%1,            Lin%Li%xref no email%1,            Xin%Wu%xref no email%1,            Dandan%Zheng%xref no email%1,            Jiazheng%Wang%xref no email%1,            Lian%Yang%xref no email%1,            Chuansheng%Zheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,                  Lefei%Han%NULL%1,                  Min%Peng%2658706528@qq.com%2,                  Yuxia%Lv%NULL%1,                  Yin%Ouyang%NULL%1,                  Kui%Liu%NULL%0,                  Linli%Yue%NULL%1,                  Qiannan%Li%NULL%1,                  Guoqiang%Sun%NULL%0,                  Lin%Chen%NULL%1,                  Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,                   R.% Chen%null%1,                   J.% Wang%null%1,                   Y.% Gong%null%1,                   Q.% Zhou%null%1,                   H.-h.% Cheng%null%1,                   Z.-y.% Xia%null%1,                   X.% Chen%null%1,                   Q.-t.% Meng%null%1,                   D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,                  Luigi%Frigerio%NULL%1,                  Irene%Cetin%NULL%1,                  Patrizia%Vergani%NULL%1,                  Arsenio%Spinillo%NULL%1,                  Federico%Prefumo%NULL%1,                  Edda%Pellegrini%NULL%1,                  Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,                  Caitlin%Baptiste%NULL%1,                  Cynthia%Gyamfi-Bannerman%NULL%1,                  Russell%Miller%NULL%1,                  Rebecca%Martinez%NULL%1,                  Kyra%Bernstein%NULL%1,                  Laurence%Ring%NULL%1,                  Ruth%Landau%NULL%1,                  Stephanie%Purisch%NULL%1,                  Alexander M.%Friedman%NULL%1,                  Karin%Fuchs%NULL%2,                  Desmond%Sutton%NULL%1,                  Maria%Andrikopoulou%NULL%1,                  Devon%Rupley%NULL%1,                  Jean-Ju%Sheen%NULL%1,                  Janice%Aubey%NULL%1,                  Noelia%Zork%NULL%1,                  Leslie%Moroz%NULL%1,                  Mirella%Mourad%NULL%1,                  Ronald%Wapner%NULL%1,                  Lynn L.%Simpson%NULL%1,                  Mary E.%D’Alton%NULL%1,                  Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,                  Karin%Fuchs%NULL%0,                  Mary%D’Alton%NULL%1,                  Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                  Jing%Wang%NULL%1,                  Wenbin%Li%NULL%1,                  Zhaoxian%Zhou%NULL%1,                  Siying%Liu%NULL%1,                  Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1387,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -1345,7 +1399,7 @@
         <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3">
@@ -1362,7 +1416,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1374,7 +1428,7 @@
         <v>141</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
@@ -1391,7 +1445,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1403,7 +1457,7 @@
         <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5">
@@ -1420,7 +1474,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1432,7 +1486,7 @@
         <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6">
@@ -1449,7 +1503,7 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1461,7 +1515,7 @@
         <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7">
@@ -1478,7 +1532,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1490,7 +1544,7 @@
         <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8">
@@ -1507,7 +1561,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1519,7 +1573,7 @@
         <v>148</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9">
@@ -1536,7 +1590,7 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
@@ -1548,7 +1602,7 @@
         <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10">
@@ -1565,7 +1619,7 @@
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1577,7 +1631,7 @@
         <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11">
@@ -1594,7 +1648,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1606,7 +1660,7 @@
         <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12">
@@ -1623,7 +1677,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1635,7 +1689,7 @@
         <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13">
@@ -1652,7 +1706,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -1664,7 +1718,7 @@
         <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +1735,7 @@
         <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>
@@ -1693,7 +1747,7 @@
         <v>76</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/27.xlsx
+++ b/Covid_19_Dataset_and_References/References/27.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="318">
   <si>
     <t>Doi</t>
   </si>
@@ -1045,6 +1045,45 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,                  Jing%Wang%NULL%1,                  Wenbin%Li%NULL%1,                  Zhaoxian%Zhou%NULL%1,                  Siying%Liu%NULL%1,                  Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,                   Yuan%Zhang%NULL%1,                   Lei%Huang%NULL%0,                   Bi-heng%Cheng%NULL%1,                   Zhong-yuan%Xia%NULL%1,                   Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%2,             Shiwen%Xia%xref no email%3,             Wenhao%Yuan%xref no email%2,             Kai%Yan%xref no email%2,             Feifan%Xiao%xref no email%2,             Jianbo%Shao%xref no email%2,             Wenhao%Zhou%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,                   L.%Jun%NULL%1,                   NULL%Nawsherwan%NULL%1,                   R.%Siddique%NULL%1,                   Y.%Li%NULL%1,                   G.%Han%hg7913@hotmail.com%1,                   M.%Xue%xuemengzhou@zzu.edu.cn%1,                   G.%Nabi%ghulamnabiqau@gmail.com%1,                   J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,                   Ruihong%Sun%NULL%1,                   Jianpu%Chen%NULL%1,                   Yuanliang%Xie%NULL%1,                   Shutong%Zhang%NULL%1,                   Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,                   Qin%Li%NULL%1,                   Danni%Zheng%NULL%1,                   Hai%Jiang%NULL%1,                   Yuan%Wei%NULL%0,                   Li%Zou%NULL%2,                   Li%Zou%NULL%0,                   Ling%Feng%NULL%3,                   Ling%Feng%NULL%0,                   Guoping%Xiong%NULL%3,                   Guoping%Xiong%NULL%0,                   Guoqiang%Sun%NULL%4,                   Guoqiang%Sun%NULL%0,                   Haibo%Wang%NULL%2,                   Haibo%Wang%NULL%0,                   Yangyu%Zhao%NULL%2,                   Yangyu%Zhao%NULL%0,                   Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,                   Juanjuan%Guo%NULL%0,                   Cuifang%Fan%NULL%1,                   Juan%Juan%NULL%1,                   Xuechen%Yu%NULL%0,                   Jiafu%Li%NULL%0,                   Ling%Feng%NULL%0,                   Chunyan%Li%NULL%1,                   Huijun%Chen%NULL%1,                   Yuan%Qiao%NULL%1,                   Di%Lei%NULL%1,                   Chen%Wang%NULL%0,                   Guoping%Xiong%NULL%0,                   Fengyi%Xiao%NULL%1,                   Wencong%He%NULL%1,                   Qiumei%Pang%NULL%1,                   Xiaoling%Hu%NULL%1,                   Suqing%Wang%NULL%1,                   Dunjin%Chen%NULL%1,                   Yuanzhen%Zhang%NULL%0,                   Liona C.%Poon%NULL%1,                   Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dehan%Liu%xref no email%1,             Lin%Li%xref no email%1,             Xin%Wu%xref no email%1,             Dandan%Zheng%xref no email%1,             Jiazheng%Wang%xref no email%1,             Lian%Yang%xref no email%1,             Chuansheng%Zheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,                   Lefei%Han%NULL%1,                   Min%Peng%2658706528@qq.com%2,                   Yuxia%Lv%NULL%1,                   Yin%Ouyang%NULL%1,                   Kui%Liu%NULL%0,                   Linli%Yue%NULL%1,                   Qiannan%Li%NULL%1,                   Guoqiang%Sun%NULL%0,                   Lin%Chen%NULL%1,                   Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%2,                    R.% Chen%null%1,                    J.% Wang%null%1,                    Y.% Gong%null%1,                    Q.% Zhou%null%1,                    H.-h.% Cheng%null%1,                    Z.-y.% Xia%null%1,                    X.% Chen%null%1,                    Q.-t.% Meng%null%1,                    D. % Ma%null%1,  Y.%Zhang%null%0,  R.% Chen%null%1,  J.% Wang%null%1,  Y.% Gong%null%1,  Q.% Zhou%null%2,  H.-h.% Cheng%null%1,  Z.-y.% Xia%null%1,  X.% Chen%null%2,  Q.-t.% Meng%null%1,  D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,                   Luigi%Frigerio%NULL%1,                   Irene%Cetin%NULL%1,                   Patrizia%Vergani%NULL%1,                   Arsenio%Spinillo%NULL%1,                   Federico%Prefumo%NULL%1,                   Edda%Pellegrini%NULL%1,                   Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,                   Caitlin%Baptiste%NULL%1,                   Cynthia%Gyamfi-Bannerman%NULL%1,                   Russell%Miller%NULL%1,                   Rebecca%Martinez%NULL%1,                   Kyra%Bernstein%NULL%1,                   Laurence%Ring%NULL%1,                   Ruth%Landau%NULL%1,                   Stephanie%Purisch%NULL%1,                   Alexander M.%Friedman%NULL%1,                   Karin%Fuchs%NULL%2,                   Desmond%Sutton%NULL%1,                   Maria%Andrikopoulou%NULL%1,                   Devon%Rupley%NULL%1,                   Jean-Ju%Sheen%NULL%1,                   Janice%Aubey%NULL%1,                   Noelia%Zork%NULL%1,                   Leslie%Moroz%NULL%1,                   Mirella%Mourad%NULL%1,                   Ronald%Wapner%NULL%1,                   Lynn L.%Simpson%NULL%1,                   Mary E.%D’Alton%NULL%1,                   Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,                   Karin%Fuchs%NULL%0,                   Mary%D’Alton%NULL%1,                   Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                   Jing%Wang%NULL%1,                   Wenbin%Li%NULL%1,                   Zhaoxian%Zhou%NULL%1,                   Siying%Liu%NULL%1,                   Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1426,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -1416,7 +1455,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1445,7 +1484,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1474,7 +1513,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1503,7 +1542,7 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1532,7 +1571,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1561,7 +1600,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1590,7 +1629,7 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
@@ -1619,7 +1658,7 @@
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1648,7 +1687,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1677,7 +1716,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1706,7 +1745,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -1735,7 +1774,7 @@
         <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/27.xlsx
+++ b/Covid_19_Dataset_and_References/References/27.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="380">
   <si>
     <t>Doi</t>
   </si>
@@ -1084,6 +1084,192 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,                   Jing%Wang%NULL%1,                   Wenbin%Li%NULL%1,                   Zhaoxian%Zhou%NULL%1,                   Siying%Liu%NULL%1,                   Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,                    Yuan%Zhang%NULL%1,                    Lei%Huang%NULL%0,                    Bi-heng%Cheng%NULL%1,                    Zhong-yuan%Xia%NULL%1,                    Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lingkong%Zeng%xref no email%0, Shiwen%Xia%xref no email%3, Wenhao%Yuan%xref no email%2, Kai%Yan%xref no email%2, Feifan%Xiao%xref no email%2, Jianbo%Shao%xref no email%2, Wenhao%Zhou%xref no email%3]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,                    L.%Jun%NULL%1,                    NULL%Nawsherwan%NULL%1,                    R.%Siddique%NULL%1,                    Y.%Li%NULL%1,                    G.%Han%hg7913@hotmail.com%1,                    M.%Xue%xuemengzhou@zzu.edu.cn%1,                    G.%Nabi%ghulamnabiqau@gmail.com%1,                    J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,                    Ruihong%Sun%NULL%1,                    Jianpu%Chen%NULL%1,                    Yuanliang%Xie%NULL%1,                    Shutong%Zhang%NULL%1,                    Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,                    Qin%Li%NULL%1,                    Danni%Zheng%NULL%1,                    Hai%Jiang%NULL%1,                    Yuan%Wei%NULL%0,                    Li%Zou%NULL%2,                    Li%Zou%NULL%0,                    Ling%Feng%NULL%3,                    Ling%Feng%NULL%0,                    Guoping%Xiong%NULL%3,                    Guoping%Xiong%NULL%0,                    Guoqiang%Sun%NULL%4,                    Guoqiang%Sun%NULL%0,                    Haibo%Wang%NULL%2,                    Haibo%Wang%NULL%0,                    Yangyu%Zhao%NULL%2,                    Yangyu%Zhao%NULL%0,                    Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,                    Juanjuan%Guo%NULL%0,                    Cuifang%Fan%NULL%1,                    Juan%Juan%NULL%1,                    Xuechen%Yu%NULL%0,                    Jiafu%Li%NULL%0,                    Ling%Feng%NULL%0,                    Chunyan%Li%NULL%1,                    Huijun%Chen%NULL%1,                    Yuan%Qiao%NULL%1,                    Di%Lei%NULL%1,                    Chen%Wang%NULL%0,                    Guoping%Xiong%NULL%0,                    Fengyi%Xiao%NULL%1,                    Wencong%He%NULL%1,                    Qiumei%Pang%NULL%1,                    Xiaoling%Hu%NULL%1,                    Suqing%Wang%NULL%1,                    Dunjin%Chen%NULL%1,                    Yuanzhen%Zhang%NULL%0,                    Liona C.%Poon%NULL%1,                    Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dehan%Liu%xref no email%0, Lin%Li%xref no email%1, Xin%Wu%xref no email%1, Dandan%Zheng%xref no email%1, Jiazheng%Wang%xref no email%1, Lian%Yang%xref no email%1, Chuansheng%Zheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-02</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Roentgen Ray Society</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,                    Lefei%Han%NULL%1,                    Min%Peng%2658706528@qq.com%2,                    Yuxia%Lv%NULL%1,                    Yin%Ouyang%NULL%1,                    Kui%Liu%NULL%0,                    Linli%Yue%NULL%1,                    Qiannan%Li%NULL%1,                    Guoqiang%Sun%NULL%0,                    Lin%Chen%NULL%1,                    Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,                     R.% Chen%null%1,                     J.% Wang%null%1,                     Y.% Gong%null%1,                     Q.% Zhou%null%1,                     H.-h.% Cheng%null%1,                     Z.-y.% Xia%null%1,                     X.% Chen%null%1,                     Q.-t.% Meng%null%1,                     D. % Ma%null%1,   Y.%Zhang%null%1,   R.% Chen%null%1,   J.% Wang%null%1,   Y.% Gong%null%1,   Q.% Zhou%null%2,   H.-h.% Cheng%null%1,   Z.-y.% Xia%null%1,   X.% Chen%null%2,   Q.-t.% Meng%null%1,   D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,                    Luigi%Frigerio%NULL%1,                    Irene%Cetin%NULL%1,                    Patrizia%Vergani%NULL%1,                    Arsenio%Spinillo%NULL%1,                    Federico%Prefumo%NULL%1,                    Edda%Pellegrini%NULL%1,                    Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,                    Caitlin%Baptiste%NULL%1,                    Cynthia%Gyamfi-Bannerman%NULL%1,                    Russell%Miller%NULL%1,                    Rebecca%Martinez%NULL%1,                    Kyra%Bernstein%NULL%1,                    Laurence%Ring%NULL%1,                    Ruth%Landau%NULL%1,                    Stephanie%Purisch%NULL%1,                    Alexander M.%Friedman%NULL%1,                    Karin%Fuchs%NULL%2,                    Desmond%Sutton%NULL%1,                    Maria%Andrikopoulou%NULL%1,                    Devon%Rupley%NULL%1,                    Jean-Ju%Sheen%NULL%1,                    Janice%Aubey%NULL%1,                    Noelia%Zork%NULL%1,                    Leslie%Moroz%NULL%1,                    Mirella%Mourad%NULL%1,                    Ronald%Wapner%NULL%1,                    Lynn L.%Simpson%NULL%1,                    Mary E.%D’Alton%NULL%1,                    Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,                    Karin%Fuchs%NULL%0,                    Mary%D’Alton%NULL%1,                    Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                    Jing%Wang%NULL%1,                    Wenbin%Li%NULL%1,                    Zhaoxian%Zhou%NULL%1,                    Siying%Liu%NULL%1,                    Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,                     Yuan%Zhang%NULL%1,                     Lei%Huang%NULL%0,                     Bi-heng%Cheng%NULL%1,                     Zhong-yuan%Xia%NULL%1,                     Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,                     L.%Jun%NULL%1,                     NULL%Nawsherwan%NULL%1,                     R.%Siddique%NULL%1,                     Y.%Li%NULL%1,                     G.%Han%hg7913@hotmail.com%1,                     M.%Xue%xuemengzhou@zzu.edu.cn%1,                     G.%Nabi%ghulamnabiqau@gmail.com%1,                     J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,                     Ruihong%Sun%NULL%1,                     Jianpu%Chen%NULL%1,                     Yuanliang%Xie%NULL%1,                     Shutong%Zhang%NULL%1,                     Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,                     Qin%Li%NULL%1,                     Danni%Zheng%NULL%1,                     Hai%Jiang%NULL%1,                     Yuan%Wei%NULL%0,                     Li%Zou%NULL%2,                     Li%Zou%NULL%0,                     Ling%Feng%NULL%3,                     Ling%Feng%NULL%0,                     Guoping%Xiong%NULL%3,                     Guoping%Xiong%NULL%0,                     Guoqiang%Sun%NULL%4,                     Guoqiang%Sun%NULL%0,                     Haibo%Wang%NULL%2,                     Haibo%Wang%NULL%0,                     Yangyu%Zhao%NULL%2,                     Yangyu%Zhao%NULL%0,                     Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,                     Juanjuan%Guo%NULL%0,                     Cuifang%Fan%NULL%1,                     Juan%Juan%NULL%1,                     Xuechen%Yu%NULL%0,                     Jiafu%Li%NULL%0,                     Ling%Feng%NULL%0,                     Chunyan%Li%NULL%1,                     Huijun%Chen%NULL%1,                     Yuan%Qiao%NULL%1,                     Di%Lei%NULL%1,                     Chen%Wang%NULL%0,                     Guoping%Xiong%NULL%0,                     Fengyi%Xiao%NULL%1,                     Wencong%He%NULL%1,                     Qiumei%Pang%NULL%1,                     Xiaoling%Hu%NULL%1,                     Suqing%Wang%NULL%1,                     Dunjin%Chen%NULL%1,                     Yuanzhen%Zhang%NULL%0,                     Liona C.%Poon%NULL%1,                     Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,                     Lefei%Han%NULL%1,                     Min%Peng%2658706528@qq.com%2,                     Yuxia%Lv%NULL%1,                     Yin%Ouyang%NULL%1,                     Kui%Liu%NULL%0,                     Linli%Yue%NULL%1,                     Qiannan%Li%NULL%1,                     Guoqiang%Sun%NULL%0,                     Lin%Chen%NULL%1,                     Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,                      R.% Chen%null%1,                      J.% Wang%null%1,                      Y.% Gong%null%1,                      Q.% Zhou%null%1,                      H.-h.% Cheng%null%1,                      Z.-y.% Xia%null%1,                      X.% Chen%null%1,                      Q.-t.% Meng%null%1,                      D. % Ma%null%1,    Y.%Zhang%null%1,    R.% Chen%null%1,    J.% Wang%null%1,    Y.% Gong%null%1,    Q.% Zhou%null%2,    H.-h.% Cheng%null%1,    Z.-y.% Xia%null%1,    X.% Chen%null%2,    Q.-t.% Meng%null%1,    D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,                     Luigi%Frigerio%NULL%1,                     Irene%Cetin%NULL%1,                     Patrizia%Vergani%NULL%1,                     Arsenio%Spinillo%NULL%1,                     Federico%Prefumo%NULL%1,                     Edda%Pellegrini%NULL%1,                     Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,                     Caitlin%Baptiste%NULL%1,                     Cynthia%Gyamfi-Bannerman%NULL%1,                     Russell%Miller%NULL%1,                     Rebecca%Martinez%NULL%1,                     Kyra%Bernstein%NULL%1,                     Laurence%Ring%NULL%1,                     Ruth%Landau%NULL%1,                     Stephanie%Purisch%NULL%1,                     Alexander M.%Friedman%NULL%1,                     Karin%Fuchs%NULL%2,                     Desmond%Sutton%NULL%1,                     Maria%Andrikopoulou%NULL%1,                     Devon%Rupley%NULL%1,                     Jean-Ju%Sheen%NULL%1,                     Janice%Aubey%NULL%1,                     Noelia%Zork%NULL%1,                     Leslie%Moroz%NULL%1,                     Mirella%Mourad%NULL%1,                     Ronald%Wapner%NULL%1,                     Lynn L.%Simpson%NULL%1,                     Mary E.%D’Alton%NULL%1,                     Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,                     Karin%Fuchs%NULL%0,                     Mary%D’Alton%NULL%1,                     Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                     Jing%Wang%NULL%1,                     Wenbin%Li%NULL%1,                     Zhaoxian%Zhou%NULL%1,                     Siying%Liu%NULL%1,                     Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,                      Yuan%Zhang%NULL%1,                      Lei%Huang%NULL%0,                      Bi-heng%Cheng%NULL%1,                      Zhong-yuan%Xia%NULL%1,                      Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,                      L.%Jun%NULL%1,                      NULL%Nawsherwan%NULL%1,                      R.%Siddique%NULL%1,                      Y.%Li%NULL%1,                      G.%Han%hg7913@hotmail.com%1,                      M.%Xue%xuemengzhou@zzu.edu.cn%1,                      G.%Nabi%ghulamnabiqau@gmail.com%1,                      J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,                      Ruihong%Sun%NULL%1,                      Jianpu%Chen%NULL%1,                      Yuanliang%Xie%NULL%1,                      Shutong%Zhang%NULL%1,                      Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,                      Qin%Li%NULL%1,                      Danni%Zheng%NULL%1,                      Hai%Jiang%NULL%1,                      Yuan%Wei%NULL%0,                      Li%Zou%NULL%2,                      Li%Zou%NULL%0,                      Ling%Feng%NULL%3,                      Ling%Feng%NULL%0,                      Guoping%Xiong%NULL%3,                      Guoping%Xiong%NULL%0,                      Guoqiang%Sun%NULL%4,                      Guoqiang%Sun%NULL%0,                      Haibo%Wang%NULL%2,                      Haibo%Wang%NULL%0,                      Yangyu%Zhao%NULL%2,                      Yangyu%Zhao%NULL%0,                      Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,                      Juanjuan%Guo%NULL%0,                      Cuifang%Fan%NULL%1,                      Juan%Juan%NULL%1,                      Xuechen%Yu%NULL%0,                      Jiafu%Li%NULL%0,                      Ling%Feng%NULL%0,                      Chunyan%Li%NULL%1,                      Huijun%Chen%NULL%1,                      Yuan%Qiao%NULL%1,                      Di%Lei%NULL%1,                      Chen%Wang%NULL%0,                      Guoping%Xiong%NULL%0,                      Fengyi%Xiao%NULL%1,                      Wencong%He%NULL%1,                      Qiumei%Pang%NULL%1,                      Xiaoling%Hu%NULL%1,                      Suqing%Wang%NULL%1,                      Dunjin%Chen%NULL%1,                      Yuanzhen%Zhang%NULL%0,                      Liona C.%Poon%NULL%1,                      Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,                      Lefei%Han%NULL%1,                      Min%Peng%2658706528@qq.com%2,                      Yuxia%Lv%NULL%1,                      Yin%Ouyang%NULL%1,                      Kui%Liu%NULL%0,                      Linli%Yue%NULL%1,                      Qiannan%Li%NULL%1,                      Guoqiang%Sun%NULL%0,                      Lin%Chen%NULL%1,                      Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,                       R.% Chen%null%1,                       J.% Wang%null%1,                       Y.% Gong%null%1,                       Q.% Zhou%null%1,                       H.-h.% Cheng%null%1,                       Z.-y.% Xia%null%1,                       X.% Chen%null%1,                       Q.-t.% Meng%null%1,                       D. % Ma%null%1,     Y.%Zhang%null%1,     R.% Chen%null%1,     J.% Wang%null%1,     Y.% Gong%null%1,     Q.% Zhou%null%2,     H.-h.% Cheng%null%1,     Z.-y.% Xia%null%1,     X.% Chen%null%2,     Q.-t.% Meng%null%1,     D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,                      Luigi%Frigerio%NULL%1,                      Irene%Cetin%NULL%1,                      Patrizia%Vergani%NULL%1,                      Arsenio%Spinillo%NULL%1,                      Federico%Prefumo%NULL%1,                      Edda%Pellegrini%NULL%1,                      Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,                      Caitlin%Baptiste%NULL%1,                      Cynthia%Gyamfi-Bannerman%NULL%1,                      Russell%Miller%NULL%1,                      Rebecca%Martinez%NULL%1,                      Kyra%Bernstein%NULL%1,                      Laurence%Ring%NULL%1,                      Ruth%Landau%NULL%1,                      Stephanie%Purisch%NULL%1,                      Alexander M.%Friedman%NULL%1,                      Karin%Fuchs%NULL%2,                      Desmond%Sutton%NULL%1,                      Maria%Andrikopoulou%NULL%1,                      Devon%Rupley%NULL%1,                      Jean-Ju%Sheen%NULL%1,                      Janice%Aubey%NULL%1,                      Noelia%Zork%NULL%1,                      Leslie%Moroz%NULL%1,                      Mirella%Mourad%NULL%1,                      Ronald%Wapner%NULL%1,                      Lynn L.%Simpson%NULL%1,                      Mary E.%D’Alton%NULL%1,                      Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,                      Karin%Fuchs%NULL%0,                      Mary%D’Alton%NULL%1,                      Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                      Jing%Wang%NULL%1,                      Wenbin%Li%NULL%1,                      Zhaoxian%Zhou%NULL%1,                      Siying%Liu%NULL%1,                      Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,                       Yuan%Zhang%NULL%1,                       Lei%Huang%NULL%0,                       Bi-heng%Cheng%NULL%1,                       Zhong-yuan%Xia%NULL%1,                       Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,                       L.%Jun%NULL%1,                       NULL%Nawsherwan%NULL%1,                       R.%Siddique%NULL%1,                       Y.%Li%NULL%1,                       G.%Han%hg7913@hotmail.com%1,                       M.%Xue%xuemengzhou@zzu.edu.cn%1,                       G.%Nabi%ghulamnabiqau@gmail.com%1,                       J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,                       Ruihong%Sun%NULL%1,                       Jianpu%Chen%NULL%1,                       Yuanliang%Xie%NULL%1,                       Shutong%Zhang%NULL%1,                       Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,                       Qin%Li%NULL%1,                       Danni%Zheng%NULL%1,                       Hai%Jiang%NULL%1,                       Yuan%Wei%NULL%0,                       Li%Zou%NULL%2,                       Li%Zou%NULL%0,                       Ling%Feng%NULL%3,                       Ling%Feng%NULL%0,                       Guoping%Xiong%NULL%3,                       Guoping%Xiong%NULL%0,                       Guoqiang%Sun%NULL%4,                       Guoqiang%Sun%NULL%0,                       Haibo%Wang%NULL%2,                       Haibo%Wang%NULL%0,                       Yangyu%Zhao%NULL%2,                       Yangyu%Zhao%NULL%0,                       Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,                       Juanjuan%Guo%NULL%0,                       Cuifang%Fan%NULL%1,                       Juan%Juan%NULL%1,                       Xuechen%Yu%NULL%0,                       Jiafu%Li%NULL%0,                       Ling%Feng%NULL%0,                       Chunyan%Li%NULL%1,                       Huijun%Chen%NULL%1,                       Yuan%Qiao%NULL%1,                       Di%Lei%NULL%1,                       Chen%Wang%NULL%0,                       Guoping%Xiong%NULL%0,                       Fengyi%Xiao%NULL%1,                       Wencong%He%NULL%1,                       Qiumei%Pang%NULL%1,                       Xiaoling%Hu%NULL%1,                       Suqing%Wang%NULL%1,                       Dunjin%Chen%NULL%1,                       Yuanzhen%Zhang%NULL%0,                       Liona C.%Poon%NULL%1,                       Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,                       Lefei%Han%NULL%1,                       Min%Peng%2658706528@qq.com%2,                       Yuxia%Lv%NULL%1,                       Yin%Ouyang%NULL%1,                       Kui%Liu%NULL%0,                       Linli%Yue%NULL%1,                       Qiannan%Li%NULL%1,                       Guoqiang%Sun%NULL%0,                       Lin%Chen%NULL%1,                       Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,                        R.% Chen%null%1,                        J.% Wang%null%1,                        Y.% Gong%null%1,                        Q.% Zhou%null%1,                        H.-h.% Cheng%null%1,                        Z.-y.% Xia%null%1,                        X.% Chen%null%1,                        Q.-t.% Meng%null%1,                        D. % Ma%null%1,      Y.%Zhang%null%1,      R.% Chen%null%1,      J.% Wang%null%1,      Y.% Gong%null%1,      Q.% Zhou%null%2,      H.-h.% Cheng%null%1,      Z.-y.% Xia%null%1,      X.% Chen%null%2,      Q.-t.% Meng%null%1,      D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,                       Luigi%Frigerio%NULL%1,                       Irene%Cetin%NULL%1,                       Patrizia%Vergani%NULL%1,                       Arsenio%Spinillo%NULL%1,                       Federico%Prefumo%NULL%1,                       Edda%Pellegrini%NULL%1,                       Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,                       Caitlin%Baptiste%NULL%1,                       Cynthia%Gyamfi-Bannerman%NULL%1,                       Russell%Miller%NULL%1,                       Rebecca%Martinez%NULL%1,                       Kyra%Bernstein%NULL%1,                       Laurence%Ring%NULL%1,                       Ruth%Landau%NULL%1,                       Stephanie%Purisch%NULL%1,                       Alexander M.%Friedman%NULL%1,                       Karin%Fuchs%NULL%2,                       Desmond%Sutton%NULL%1,                       Maria%Andrikopoulou%NULL%1,                       Devon%Rupley%NULL%1,                       Jean-Ju%Sheen%NULL%1,                       Janice%Aubey%NULL%1,                       Noelia%Zork%NULL%1,                       Leslie%Moroz%NULL%1,                       Mirella%Mourad%NULL%1,                       Ronald%Wapner%NULL%1,                       Lynn L.%Simpson%NULL%1,                       Mary E.%D’Alton%NULL%1,                       Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,                       Karin%Fuchs%NULL%0,                       Mary%D’Alton%NULL%1,                       Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                       Jing%Wang%NULL%1,                       Wenbin%Li%NULL%1,                       Zhaoxian%Zhou%NULL%1,                       Siying%Liu%NULL%1,                       Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,                        Yuan%Zhang%NULL%1,                        Lei%Huang%NULL%0,                        Bi-heng%Cheng%NULL%1,                        Zhong-yuan%Xia%NULL%1,                        Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,                        L.%Jun%NULL%1,                        NULL%Nawsherwan%NULL%1,                        R.%Siddique%NULL%1,                        Y.%Li%NULL%1,                        G.%Han%hg7913@hotmail.com%1,                        M.%Xue%xuemengzhou@zzu.edu.cn%1,                        G.%Nabi%ghulamnabiqau@gmail.com%1,                        J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,                        Ruihong%Sun%NULL%1,                        Jianpu%Chen%NULL%1,                        Yuanliang%Xie%NULL%1,                        Shutong%Zhang%NULL%1,                        Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,                        Qin%Li%NULL%1,                        Danni%Zheng%NULL%1,                        Hai%Jiang%NULL%1,                        Yuan%Wei%NULL%0,                        Li%Zou%NULL%2,                        Li%Zou%NULL%0,                        Ling%Feng%NULL%3,                        Ling%Feng%NULL%0,                        Guoping%Xiong%NULL%3,                        Guoping%Xiong%NULL%0,                        Guoqiang%Sun%NULL%4,                        Guoqiang%Sun%NULL%0,                        Haibo%Wang%NULL%2,                        Haibo%Wang%NULL%0,                        Yangyu%Zhao%NULL%2,                        Yangyu%Zhao%NULL%0,                        Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,                        Juanjuan%Guo%NULL%0,                        Cuifang%Fan%NULL%1,                        Juan%Juan%NULL%1,                        Xuechen%Yu%NULL%0,                        Jiafu%Li%NULL%0,                        Ling%Feng%NULL%0,                        Chunyan%Li%NULL%1,                        Huijun%Chen%NULL%1,                        Yuan%Qiao%NULL%1,                        Di%Lei%NULL%1,                        Chen%Wang%NULL%0,                        Guoping%Xiong%NULL%0,                        Fengyi%Xiao%NULL%1,                        Wencong%He%NULL%1,                        Qiumei%Pang%NULL%1,                        Xiaoling%Hu%NULL%1,                        Suqing%Wang%NULL%1,                        Dunjin%Chen%NULL%1,                        Yuanzhen%Zhang%NULL%0,                        Liona C.%Poon%NULL%1,                        Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,                        Lefei%Han%NULL%1,                        Min%Peng%2658706528@qq.com%2,                        Yuxia%Lv%NULL%1,                        Yin%Ouyang%NULL%1,                        Kui%Liu%NULL%0,                        Linli%Yue%NULL%1,                        Qiannan%Li%NULL%1,                        Guoqiang%Sun%NULL%0,                        Lin%Chen%NULL%1,                        Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,                         R.% Chen%null%1,                         J.% Wang%null%1,                         Y.% Gong%null%1,                         Q.% Zhou%null%1,                         H.-h.% Cheng%null%1,                         Z.-y.% Xia%null%1,                         X.% Chen%null%1,                         Q.-t.% Meng%null%1,                         D. % Ma%null%1,       Y.%Zhang%null%1,       R.% Chen%null%1,       J.% Wang%null%1,       Y.% Gong%null%1,       Q.% Zhou%null%2,       H.-h.% Cheng%null%1,       Z.-y.% Xia%null%1,       X.% Chen%null%2,       Q.-t.% Meng%null%1,       D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,                        Luigi%Frigerio%NULL%1,                        Irene%Cetin%NULL%1,                        Patrizia%Vergani%NULL%1,                        Arsenio%Spinillo%NULL%1,                        Federico%Prefumo%NULL%1,                        Edda%Pellegrini%NULL%1,                        Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,                        Caitlin%Baptiste%NULL%1,                        Cynthia%Gyamfi-Bannerman%NULL%1,                        Russell%Miller%NULL%1,                        Rebecca%Martinez%NULL%1,                        Kyra%Bernstein%NULL%1,                        Laurence%Ring%NULL%1,                        Ruth%Landau%NULL%1,                        Stephanie%Purisch%NULL%1,                        Alexander M.%Friedman%NULL%1,                        Karin%Fuchs%NULL%2,                        Desmond%Sutton%NULL%1,                        Maria%Andrikopoulou%NULL%1,                        Devon%Rupley%NULL%1,                        Jean-Ju%Sheen%NULL%1,                        Janice%Aubey%NULL%1,                        Noelia%Zork%NULL%1,                        Leslie%Moroz%NULL%1,                        Mirella%Mourad%NULL%1,                        Ronald%Wapner%NULL%1,                        Lynn L.%Simpson%NULL%1,                        Mary E.%D’Alton%NULL%1,                        Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,                        Karin%Fuchs%NULL%0,                        Mary%D’Alton%NULL%1,                        Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                        Jing%Wang%NULL%1,                        Wenbin%Li%NULL%1,                        Zhaoxian%Zhou%NULL%1,                        Siying%Liu%NULL%1,                        Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1411,6 +1597,9 @@
       <c r="I1" t="s">
         <v>77</v>
       </c>
+      <c r="J1" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1426,7 +1615,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>305</v>
+        <v>369</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -1439,6 +1628,9 @@
       </c>
       <c r="I2" t="s">
         <v>288</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -1455,7 +1647,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>306</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1464,10 +1656,13 @@
         <v>140</v>
       </c>
       <c r="H3" t="s">
-        <v>141</v>
+        <v>321</v>
       </c>
       <c r="I3" t="s">
-        <v>290</v>
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="4">
@@ -1484,7 +1679,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>307</v>
+        <v>370</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1497,6 +1692,9 @@
       </c>
       <c r="I4" t="s">
         <v>292</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -1513,7 +1711,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>308</v>
+        <v>371</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1526,6 +1724,9 @@
       </c>
       <c r="I5" t="s">
         <v>294</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -1542,7 +1743,7 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>309</v>
+        <v>372</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1555,6 +1756,9 @@
       </c>
       <c r="I6" t="s">
         <v>294</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -1571,7 +1775,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>310</v>
+        <v>373</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1584,6 +1788,9 @@
       </c>
       <c r="I7" t="s">
         <v>292</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -1600,7 +1807,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1609,10 +1816,13 @@
         <v>140</v>
       </c>
       <c r="H8" t="s">
-        <v>148</v>
+        <v>328</v>
       </c>
       <c r="I8" t="s">
-        <v>290</v>
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="9">
@@ -1629,7 +1839,7 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>312</v>
+        <v>374</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
@@ -1642,6 +1852,9 @@
       </c>
       <c r="I9" t="s">
         <v>294</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -1658,7 +1871,7 @@
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>313</v>
+        <v>375</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1671,6 +1884,9 @@
       </c>
       <c r="I10" t="s">
         <v>300</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -1687,7 +1903,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>314</v>
+        <v>376</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1700,6 +1916,9 @@
       </c>
       <c r="I11" t="s">
         <v>294</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -1716,7 +1935,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>315</v>
+        <v>377</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1729,6 +1948,9 @@
       </c>
       <c r="I12" t="s">
         <v>292</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -1745,7 +1967,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>316</v>
+        <v>378</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -1758,6 +1980,9 @@
       </c>
       <c r="I13" t="s">
         <v>294</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -1774,7 +1999,7 @@
         <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>317</v>
+        <v>379</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>
@@ -1787,6 +2012,9 @@
       </c>
       <c r="I14" t="s">
         <v>288</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/27.xlsx
+++ b/Covid_19_Dataset_and_References/References/27.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="402">
   <si>
     <t>Doi</t>
   </si>
@@ -1270,6 +1270,72 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,                        Jing%Wang%NULL%1,                        Wenbin%Li%NULL%1,                        Zhaoxian%Zhou%NULL%1,                        Siying%Liu%NULL%1,                        Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,                         Yuan%Zhang%NULL%1,                         Lei%Huang%NULL%0,                         Bi-heng%Cheng%NULL%1,                         Zhong-yuan%Xia%NULL%1,                         Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,                         L.%Jun%NULL%1,                         NULL%Nawsherwan%NULL%1,                         R.%Siddique%NULL%1,                         Y.%Li%NULL%1,                         G.%Han%hg7913@hotmail.com%1,                         M.%Xue%xuemengzhou@zzu.edu.cn%1,                         G.%Nabi%ghulamnabiqau@gmail.com%1,                         J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,                         Ruihong%Sun%NULL%1,                         Jianpu%Chen%NULL%1,                         Yuanliang%Xie%NULL%1,                         Shutong%Zhang%NULL%1,                         Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,                         Qin%Li%NULL%1,                         Danni%Zheng%NULL%1,                         Hai%Jiang%NULL%1,                         Yuan%Wei%NULL%0,                         Li%Zou%NULL%2,                         Li%Zou%NULL%0,                         Ling%Feng%NULL%3,                         Ling%Feng%NULL%0,                         Guoping%Xiong%NULL%3,                         Guoping%Xiong%NULL%0,                         Guoqiang%Sun%NULL%4,                         Guoqiang%Sun%NULL%0,                         Haibo%Wang%NULL%2,                         Haibo%Wang%NULL%0,                         Yangyu%Zhao%NULL%2,                         Yangyu%Zhao%NULL%0,                         Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,                         Juanjuan%Guo%NULL%0,                         Cuifang%Fan%NULL%1,                         Juan%Juan%NULL%1,                         Xuechen%Yu%NULL%0,                         Jiafu%Li%NULL%0,                         Ling%Feng%NULL%0,                         Chunyan%Li%NULL%1,                         Huijun%Chen%NULL%1,                         Yuan%Qiao%NULL%1,                         Di%Lei%NULL%1,                         Chen%Wang%NULL%0,                         Guoping%Xiong%NULL%0,                         Fengyi%Xiao%NULL%1,                         Wencong%He%NULL%1,                         Qiumei%Pang%NULL%1,                         Xiaoling%Hu%NULL%1,                         Suqing%Wang%NULL%1,                         Dunjin%Chen%NULL%1,                         Yuanzhen%Zhang%NULL%0,                         Liona C.%Poon%NULL%1,                         Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,                         Lefei%Han%NULL%1,                         Min%Peng%2658706528@qq.com%2,                         Yuxia%Lv%NULL%1,                         Yin%Ouyang%NULL%1,                         Kui%Liu%NULL%0,                         Linli%Yue%NULL%1,                         Qiannan%Li%NULL%1,                         Guoqiang%Sun%NULL%0,                         Lin%Chen%NULL%1,                         Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,                          R.% Chen%null%1,                          J.% Wang%null%1,                          Y.% Gong%null%1,                          Q.% Zhou%null%1,                          H.-h.% Cheng%null%1,                          Z.-y.% Xia%null%1,                          X.% Chen%null%1,                          Q.-t.% Meng%null%1,                          D. % Ma%null%1,        Y.%Zhang%null%1,        R.% Chen%null%1,        J.% Wang%null%1,        Y.% Gong%null%1,        Q.% Zhou%null%2,        H.-h.% Cheng%null%1,        Z.-y.% Xia%null%1,        X.% Chen%null%2,        Q.-t.% Meng%null%1,        D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,                         Luigi%Frigerio%NULL%1,                         Irene%Cetin%NULL%1,                         Patrizia%Vergani%NULL%1,                         Arsenio%Spinillo%NULL%1,                         Federico%Prefumo%NULL%1,                         Edda%Pellegrini%NULL%1,                         Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,                         Caitlin%Baptiste%NULL%1,                         Cynthia%Gyamfi-Bannerman%NULL%1,                         Russell%Miller%NULL%1,                         Rebecca%Martinez%NULL%1,                         Kyra%Bernstein%NULL%1,                         Laurence%Ring%NULL%1,                         Ruth%Landau%NULL%1,                         Stephanie%Purisch%NULL%1,                         Alexander M.%Friedman%NULL%1,                         Karin%Fuchs%NULL%2,                         Desmond%Sutton%NULL%1,                         Maria%Andrikopoulou%NULL%1,                         Devon%Rupley%NULL%1,                         Jean-Ju%Sheen%NULL%1,                         Janice%Aubey%NULL%1,                         Noelia%Zork%NULL%1,                         Leslie%Moroz%NULL%1,                         Mirella%Mourad%NULL%1,                         Ronald%Wapner%NULL%1,                         Lynn L.%Simpson%NULL%1,                         Mary E.%D’Alton%NULL%1,                         Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,                         Karin%Fuchs%NULL%0,                         Mary%D’Alton%NULL%1,                         Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                         Jing%Wang%NULL%1,                         Wenbin%Li%NULL%1,                         Zhaoxian%Zhou%NULL%1,                         Siying%Liu%NULL%1,                         Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,                          Yuan%Zhang%NULL%1,                          Lei%Huang%NULL%0,                          Bi-heng%Cheng%NULL%1,                          Zhong-yuan%Xia%NULL%1,                          Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,                          L.%Jun%NULL%1,                          NULL%Nawsherwan%NULL%1,                          R.%Siddique%NULL%1,                          Y.%Li%NULL%1,                          G.%Han%hg7913@hotmail.com%1,                          M.%Xue%xuemengzhou@zzu.edu.cn%1,                          G.%Nabi%ghulamnabiqau@gmail.com%1,                          J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,                          Ruihong%Sun%NULL%1,                          Jianpu%Chen%NULL%1,                          Yuanliang%Xie%NULL%1,                          Shutong%Zhang%NULL%1,                          Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,                          Qin%Li%NULL%1,                          Danni%Zheng%NULL%1,                          Hai%Jiang%NULL%1,                          Yuan%Wei%NULL%0,                          Li%Zou%NULL%2,                          Li%Zou%NULL%0,                          Ling%Feng%NULL%3,                          Ling%Feng%NULL%0,                          Guoping%Xiong%NULL%3,                          Guoping%Xiong%NULL%0,                          Guoqiang%Sun%NULL%4,                          Guoqiang%Sun%NULL%0,                          Haibo%Wang%NULL%2,                          Haibo%Wang%NULL%0,                          Yangyu%Zhao%NULL%2,                          Yangyu%Zhao%NULL%0,                          Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,                          Juanjuan%Guo%NULL%0,                          Cuifang%Fan%NULL%1,                          Juan%Juan%NULL%1,                          Xuechen%Yu%NULL%0,                          Jiafu%Li%NULL%0,                          Ling%Feng%NULL%0,                          Chunyan%Li%NULL%1,                          Huijun%Chen%NULL%1,                          Yuan%Qiao%NULL%1,                          Di%Lei%NULL%1,                          Chen%Wang%NULL%0,                          Guoping%Xiong%NULL%0,                          Fengyi%Xiao%NULL%1,                          Wencong%He%NULL%1,                          Qiumei%Pang%NULL%1,                          Xiaoling%Hu%NULL%1,                          Suqing%Wang%NULL%1,                          Dunjin%Chen%NULL%1,                          Yuanzhen%Zhang%NULL%0,                          Liona C.%Poon%NULL%1,                          Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,                          Lefei%Han%NULL%1,                          Min%Peng%2658706528@qq.com%2,                          Yuxia%Lv%NULL%1,                          Yin%Ouyang%NULL%1,                          Kui%Liu%NULL%0,                          Linli%Yue%NULL%1,                          Qiannan%Li%NULL%1,                          Guoqiang%Sun%NULL%0,                          Lin%Chen%NULL%1,                          Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[ Y.%Zhang%null%1,                           R.% Chen%null%1,                           J.% Wang%null%1,                           Y.% Gong%null%1,                           Q.% Zhou%null%1,                           H.-h.% Cheng%null%1,                           Z.-y.% Xia%null%1,                           X.% Chen%null%1,                           Q.-t.% Meng%null%1,                           D. % Ma%null%1,         Y.%Zhang%null%1,         R.% Chen%null%1,         J.% Wang%null%1,         Y.% Gong%null%1,         Q.% Zhou%null%2,         H.-h.% Cheng%null%1,         Z.-y.% Xia%null%1,         X.% Chen%null%2,         Q.-t.% Meng%null%1,         D. % Ma%null%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,                          Luigi%Frigerio%NULL%1,                          Irene%Cetin%NULL%1,                          Patrizia%Vergani%NULL%1,                          Arsenio%Spinillo%NULL%1,                          Federico%Prefumo%NULL%1,                          Edda%Pellegrini%NULL%1,                          Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,                          Caitlin%Baptiste%NULL%1,                          Cynthia%Gyamfi-Bannerman%NULL%1,                          Russell%Miller%NULL%1,                          Rebecca%Martinez%NULL%1,                          Kyra%Bernstein%NULL%1,                          Laurence%Ring%NULL%1,                          Ruth%Landau%NULL%1,                          Stephanie%Purisch%NULL%1,                          Alexander M.%Friedman%NULL%1,                          Karin%Fuchs%NULL%2,                          Desmond%Sutton%NULL%1,                          Maria%Andrikopoulou%NULL%1,                          Devon%Rupley%NULL%1,                          Jean-Ju%Sheen%NULL%1,                          Janice%Aubey%NULL%1,                          Noelia%Zork%NULL%1,                          Leslie%Moroz%NULL%1,                          Mirella%Mourad%NULL%1,                          Ronald%Wapner%NULL%1,                          Lynn L.%Simpson%NULL%1,                          Mary E.%D’Alton%NULL%1,                          Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,                          Karin%Fuchs%NULL%0,                          Mary%D’Alton%NULL%1,                          Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                          Jing%Wang%NULL%1,                          Wenbin%Li%NULL%1,                          Zhaoxian%Zhou%NULL%1,                          Siying%Liu%NULL%1,                          Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1615,7 +1681,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -1647,7 +1713,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1679,7 +1745,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1711,7 +1777,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1743,7 +1809,7 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1775,7 +1841,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1807,7 +1873,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1839,7 +1905,7 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
@@ -1871,7 +1937,7 @@
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1903,7 +1969,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1935,7 +2001,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1967,7 +2033,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -1999,7 +2065,7 @@
         <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>
